--- a/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
+++ b/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
@@ -46,6 +46,36 @@
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -58,34 +88,76 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -94,66 +166,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
@@ -166,28 +178,40 @@
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">GD</t>
   </si>
   <si>
     <t xml:space="preserve">Grenada</t>
   </si>
   <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GN</t>
@@ -196,28 +220,28 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">GY</t>
   </si>
   <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -226,12 +250,6 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
@@ -256,22 +274,208 @@
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
     <t xml:space="preserve">KG</t>
   </si>
   <si>
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
     <t xml:space="preserve">KN</t>
@@ -280,274 +484,100 @@
     <t xml:space="preserve">Saint Kitts and Nevis</t>
   </si>
   <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Lucia</t>
   </si>
   <si>
+    <t xml:space="preserve">VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SR</t>
   </si>
   <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">SZ</t>
   </si>
   <si>
     <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">TH</t>
@@ -556,10 +586,16 @@
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t xml:space="preserve">TN</t>
@@ -568,28 +604,16 @@
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
     <t xml:space="preserve">TV</t>
   </si>
   <si>
     <t xml:space="preserve">Tuvalu</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
@@ -598,16 +622,10 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
     <t xml:space="preserve">VN</t>
@@ -616,28 +634,10 @@
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1295,7 +1295,7 @@
         <v>2016</v>
       </c>
       <c r="D12" t="n">
-        <v>14682868</v>
+        <v>1548485</v>
       </c>
     </row>
     <row r="13">
@@ -1309,35 +1309,35 @@
         <v>2017</v>
       </c>
       <c r="D13" t="n">
-        <v>12045916</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="n">
-        <v>18343700</v>
+        <v>4570749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="n">
-        <v>1117722</v>
+        <v>4092491</v>
       </c>
     </row>
     <row r="16">
@@ -1348,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D16" t="n">
-        <v>635055</v>
+        <v>5010591</v>
       </c>
     </row>
     <row r="17">
@@ -1362,150 +1362,150 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D17" t="n">
-        <v>349024</v>
+        <v>1492800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="n">
-        <v>201004</v>
+        <v>35925</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>4570749</v>
+        <v>5086260</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
         <v>2017</v>
       </c>
       <c r="D20" t="n">
-        <v>4092491</v>
+        <v>7426683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
         <v>2018</v>
       </c>
       <c r="D21" t="n">
-        <v>5010591</v>
+        <v>3635166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="n">
-        <v>1492800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>5086260</v>
+        <v>14682868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
         <v>2017</v>
       </c>
       <c r="D24" t="n">
-        <v>7426683</v>
+        <v>12045916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
       </c>
       <c r="D25" t="n">
-        <v>3635166</v>
+        <v>18343700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D26" t="n">
-        <v>13200</v>
+        <v>1117722</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>35925</v>
+        <v>635055</v>
       </c>
     </row>
     <row r="28">
@@ -1516,10 +1516,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D28" t="n">
-        <v>1548485</v>
+        <v>349024</v>
       </c>
     </row>
     <row r="29">
@@ -1530,10 +1530,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="n">
-        <v>39783</v>
+        <v>201004</v>
       </c>
     </row>
     <row r="30">
@@ -1547,7 +1547,7 @@
         <v>2016</v>
       </c>
       <c r="D30" t="n">
-        <v>11921731</v>
+        <v>962168</v>
       </c>
     </row>
     <row r="31">
@@ -1561,21 +1561,21 @@
         <v>2017</v>
       </c>
       <c r="D31" t="n">
-        <v>2523437</v>
+        <v>1018290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D32" t="n">
-        <v>2374116</v>
+        <v>2482953</v>
       </c>
     </row>
     <row r="33">
@@ -1586,24 +1586,24 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D33" t="n">
-        <v>5599074</v>
+        <v>919416</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D34" t="n">
-        <v>2421393</v>
+        <v>1671349</v>
       </c>
     </row>
     <row r="35">
@@ -1614,32 +1614,32 @@
         <v>29</v>
       </c>
       <c r="C35" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>2588096</v>
+        <v>5599074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="n">
-        <v>3220443</v>
+        <v>2239080</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
         <v>2016</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="n">
         <v>2017</v>
@@ -1664,136 +1664,136 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>2482953</v>
+        <v>24908289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" t="n">
         <v>2017</v>
       </c>
       <c r="D40" t="n">
-        <v>919416</v>
+        <v>8073879</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="n">
         <v>2018</v>
       </c>
       <c r="D41" t="n">
-        <v>1671349</v>
+        <v>17704982</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" t="n">
         <v>2016</v>
       </c>
       <c r="D42" t="n">
-        <v>24908289</v>
+        <v>254478</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" t="n">
         <v>2017</v>
       </c>
       <c r="D43" t="n">
-        <v>8073879</v>
+        <v>263655</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" t="n">
         <v>2018</v>
       </c>
       <c r="D44" t="n">
-        <v>17704982</v>
+        <v>357171</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C45" t="n">
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>254478</v>
+        <v>2421393</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
         <v>2017</v>
       </c>
       <c r="D46" t="n">
-        <v>263655</v>
+        <v>2588096</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C47" t="n">
         <v>2018</v>
       </c>
       <c r="D47" t="n">
-        <v>357171</v>
+        <v>3220443</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" t="n">
         <v>2016</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n">
         <v>2017</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" t="n">
         <v>2018</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n">
         <v>2016</v>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C52" t="n">
         <v>2016</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C53" t="n">
         <v>2017</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C54" t="n">
         <v>2016</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C55" t="n">
         <v>2017</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C56" t="n">
         <v>2018</v>
@@ -1916,234 +1916,234 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>219169</v>
+        <v>11921731</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C58" t="n">
         <v>2017</v>
       </c>
       <c r="D58" t="n">
-        <v>177298</v>
+        <v>2523437</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C59" t="n">
         <v>2018</v>
       </c>
       <c r="D59" t="n">
-        <v>176775</v>
+        <v>2374116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C60" t="n">
         <v>2016</v>
       </c>
       <c r="D60" t="n">
-        <v>2438895</v>
+        <v>219169</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C61" t="n">
         <v>2017</v>
       </c>
       <c r="D61" t="n">
-        <v>3442524</v>
+        <v>177298</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C62" t="n">
         <v>2018</v>
       </c>
       <c r="D62" t="n">
-        <v>2467873</v>
+        <v>176775</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>63707831</v>
+        <v>2438895</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" t="n">
         <v>2017</v>
       </c>
       <c r="D64" t="n">
-        <v>49110085</v>
+        <v>3442524</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C65" t="n">
         <v>2018</v>
       </c>
       <c r="D65" t="n">
-        <v>89727354</v>
+        <v>2467873</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C66" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D66" t="n">
-        <v>28475160</v>
+        <v>457537</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D67" t="n">
-        <v>925054</v>
+        <v>286163</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C68" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="n">
-        <v>39783</v>
+        <v>359874</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>31737163</v>
+        <v>63707831</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C70" t="n">
         <v>2017</v>
       </c>
       <c r="D70" t="n">
-        <v>27510203</v>
+        <v>49110085</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C71" t="n">
         <v>2018</v>
       </c>
       <c r="D71" t="n">
-        <v>18204211</v>
+        <v>89727354</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C72" t="n">
         <v>2019</v>
       </c>
       <c r="D72" t="n">
-        <v>1117722</v>
+        <v>28475160</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C73" t="n">
         <v>2016</v>
@@ -2154,464 +2154,464 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C74" t="n">
         <v>2016</v>
       </c>
       <c r="D74" t="n">
-        <v>1341784</v>
+        <v>31737163</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C75" t="n">
         <v>2017</v>
       </c>
       <c r="D75" t="n">
-        <v>1742064</v>
+        <v>27510203</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C76" t="n">
         <v>2018</v>
       </c>
       <c r="D76" t="n">
-        <v>3528294</v>
+        <v>18204211</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C77" t="n">
         <v>2019</v>
       </c>
       <c r="D77" t="n">
-        <v>958047</v>
+        <v>1117722</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C78" t="n">
         <v>2016</v>
       </c>
       <c r="D78" t="n">
-        <v>4586662</v>
+        <v>925054</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C79" t="n">
         <v>2017</v>
       </c>
       <c r="D79" t="n">
-        <v>1620744</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C80" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D80" t="n">
-        <v>1262977</v>
+        <v>4586662</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C81" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D81" t="n">
-        <v>2175800</v>
+        <v>1620744</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C82" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D82" t="n">
-        <v>197300</v>
+        <v>1262977</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C83" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>157052</v>
+        <v>1341784</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C84" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D84" t="n">
-        <v>13405617</v>
+        <v>1742064</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C85" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D85" t="n">
-        <v>9831287</v>
+        <v>3528294</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D86" t="n">
-        <v>14118032</v>
+        <v>958047</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C87" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D87" t="n">
-        <v>4105200</v>
+        <v>2175800</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C88" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D88" t="n">
-        <v>2425800</v>
+        <v>197300</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C89" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D89" t="n">
-        <v>31169353</v>
+        <v>157052</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C90" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D90" t="n">
-        <v>9642922</v>
+        <v>31169353</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C91" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D91" t="n">
-        <v>11430177</v>
+        <v>9642922</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C92" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D92" t="n">
-        <v>17757195</v>
+        <v>11430177</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C93" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>19345816</v>
+        <v>13405617</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C94" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D94" t="n">
-        <v>25154958</v>
+        <v>9831287</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C95" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D95" t="n">
-        <v>2293131</v>
+        <v>14118032</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C96" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D96" t="n">
-        <v>192617</v>
+        <v>4105200</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C97" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D97" t="n">
-        <v>2222582</v>
+        <v>2425800</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C98" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D98" t="n">
-        <v>2977997</v>
+        <v>2222582</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C99" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D99" t="n">
-        <v>3985649</v>
+        <v>2977997</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C100" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D100" t="n">
-        <v>262837</v>
+        <v>3985649</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C101" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D101" t="n">
-        <v>192617</v>
+        <v>262837</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C102" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D102" t="n">
-        <v>2874982</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C103" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>4901734</v>
+        <v>17757195</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C104" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D104" t="n">
-        <v>8986326</v>
+        <v>19345816</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C105" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D105" t="n">
-        <v>1001527</v>
+        <v>25154958</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C106" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D106" t="n">
-        <v>2375541</v>
+        <v>2293131</v>
       </c>
     </row>
     <row r="107">
@@ -2622,108 +2622,108 @@
         <v>77</v>
       </c>
       <c r="C107" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D107" t="n">
-        <v>9281116</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C108" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D108" t="n">
-        <v>5642242</v>
+        <v>2874982</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C109" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D109" t="n">
-        <v>5066367</v>
+        <v>4901734</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C110" t="n">
         <v>2016</v>
       </c>
       <c r="D110" t="n">
-        <v>15737719</v>
+        <v>8986326</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C111" t="n">
         <v>2017</v>
       </c>
       <c r="D111" t="n">
-        <v>11599217</v>
+        <v>1001527</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C112" t="n">
         <v>2018</v>
       </c>
       <c r="D112" t="n">
-        <v>13150132</v>
+        <v>2375541</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C113" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>2761680</v>
+        <v>9281116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C114" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D114" t="n">
-        <v>139632</v>
+        <v>5642242</v>
       </c>
     </row>
     <row r="115">
@@ -2734,24 +2734,24 @@
         <v>83</v>
       </c>
       <c r="C115" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D115" t="n">
-        <v>962168</v>
+        <v>5066367</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C116" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D116" t="n">
-        <v>1018290</v>
+        <v>15737719</v>
       </c>
     </row>
     <row r="117">
@@ -2762,10 +2762,10 @@
         <v>85</v>
       </c>
       <c r="C117" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D117" t="n">
-        <v>39783</v>
+        <v>11599217</v>
       </c>
     </row>
     <row r="118">
@@ -2776,24 +2776,24 @@
         <v>85</v>
       </c>
       <c r="C118" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D118" t="n">
-        <v>39783</v>
+        <v>13150132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C119" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D119" t="n">
-        <v>550996</v>
+        <v>2761680</v>
       </c>
     </row>
     <row r="120">
@@ -2804,7 +2804,7 @@
         <v>87</v>
       </c>
       <c r="C120" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D120" t="n">
         <v>39783</v>
@@ -2812,30 +2812,30 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C121" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D121" t="n">
-        <v>512047</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C122" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D122" t="n">
-        <v>187221</v>
+        <v>139632</v>
       </c>
     </row>
     <row r="123">
@@ -2846,10 +2846,10 @@
         <v>91</v>
       </c>
       <c r="C123" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>127840</v>
+        <v>187221</v>
       </c>
     </row>
     <row r="124">
@@ -2860,38 +2860,38 @@
         <v>91</v>
       </c>
       <c r="C124" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D124" t="n">
-        <v>257106</v>
+        <v>127840</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B125" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C125" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="n">
-        <v>559800</v>
+        <v>257106</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C126" t="n">
         <v>2016</v>
       </c>
       <c r="D126" t="n">
-        <v>1299112</v>
+        <v>559800</v>
       </c>
     </row>
     <row r="127">
@@ -2902,7 +2902,7 @@
         <v>95</v>
       </c>
       <c r="C127" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D127" t="n">
         <v>39783</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C128" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D128" t="n">
-        <v>3642339</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="129">
@@ -2933,35 +2933,35 @@
         <v>2017</v>
       </c>
       <c r="D129" t="n">
-        <v>2440853</v>
+        <v>256760</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C130" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D130" t="n">
-        <v>704516</v>
+        <v>256023</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B131" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C131" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>256760</v>
+        <v>916257</v>
       </c>
     </row>
     <row r="132">
@@ -2972,10 +2972,10 @@
         <v>101</v>
       </c>
       <c r="C132" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D132" t="n">
-        <v>39783</v>
+        <v>797386</v>
       </c>
     </row>
     <row r="133">
@@ -2986,10 +2986,10 @@
         <v>101</v>
       </c>
       <c r="C133" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="n">
-        <v>39783</v>
+        <v>1699276</v>
       </c>
     </row>
     <row r="134">
@@ -3003,35 +3003,35 @@
         <v>2016</v>
       </c>
       <c r="D134" t="n">
-        <v>256023</v>
+        <v>2692992</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C135" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D135" t="n">
-        <v>3802773</v>
+        <v>2600843</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C136" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D136" t="n">
-        <v>171825</v>
+        <v>2119570</v>
       </c>
     </row>
     <row r="137">
@@ -3042,24 +3042,24 @@
         <v>105</v>
       </c>
       <c r="C137" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D137" t="n">
-        <v>3390872</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C138" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D138" t="n">
-        <v>916257</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="139">
@@ -3070,10 +3070,10 @@
         <v>107</v>
       </c>
       <c r="C139" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>797386</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="140">
@@ -3084,10 +3084,10 @@
         <v>107</v>
       </c>
       <c r="C140" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D140" t="n">
-        <v>1699276</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="141">
@@ -3157,99 +3157,99 @@
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>7029507</v>
+        <v>372065</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C146" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D146" t="n">
-        <v>7679834</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C147" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D147" t="n">
-        <v>13157529</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C148" t="n">
         <v>2016</v>
       </c>
       <c r="D148" t="n">
-        <v>1196900</v>
+        <v>36993</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C149" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>1159392</v>
+        <v>1196900</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C150" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D150" t="n">
-        <v>1439218</v>
+        <v>1159392</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C151" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D151" t="n">
-        <v>372065</v>
+        <v>1439218</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C152" t="n">
         <v>2016</v>
@@ -3260,30 +3260,30 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B153" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>39783</v>
+        <v>3802773</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C154" t="n">
         <v>2017</v>
       </c>
       <c r="D154" t="n">
-        <v>39783</v>
+        <v>171825</v>
       </c>
     </row>
     <row r="155">
@@ -3294,24 +3294,24 @@
         <v>121</v>
       </c>
       <c r="C155" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D155" t="n">
-        <v>39783</v>
+        <v>3390872</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C156" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D156" t="n">
-        <v>39783</v>
+        <v>20119196</v>
       </c>
     </row>
     <row r="157">
@@ -3322,10 +3322,10 @@
         <v>123</v>
       </c>
       <c r="C157" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D157" t="n">
-        <v>2692992</v>
+        <v>13729517</v>
       </c>
     </row>
     <row r="158">
@@ -3336,24 +3336,24 @@
         <v>123</v>
       </c>
       <c r="C158" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D158" t="n">
-        <v>2600843</v>
+        <v>6295683</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C159" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>2119570</v>
+        <v>7029507</v>
       </c>
     </row>
     <row r="160">
@@ -3364,24 +3364,24 @@
         <v>125</v>
       </c>
       <c r="C160" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D160" t="n">
-        <v>36993</v>
+        <v>7679834</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C161" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="n">
-        <v>39783</v>
+        <v>13157529</v>
       </c>
     </row>
     <row r="162">
@@ -3392,24 +3392,24 @@
         <v>127</v>
       </c>
       <c r="C162" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D162" t="n">
-        <v>39783</v>
+        <v>55825</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D163" t="n">
-        <v>20119196</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="164">
@@ -3420,10 +3420,10 @@
         <v>129</v>
       </c>
       <c r="C164" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D164" t="n">
-        <v>13729517</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="165">
@@ -3434,10 +3434,10 @@
         <v>129</v>
       </c>
       <c r="C165" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D165" t="n">
-        <v>6295683</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="166">
@@ -3451,7 +3451,7 @@
         <v>2016</v>
       </c>
       <c r="D166" t="n">
-        <v>55825</v>
+        <v>2588709</v>
       </c>
     </row>
     <row r="167">
@@ -3465,91 +3465,91 @@
         <v>2017</v>
       </c>
       <c r="D167" t="n">
-        <v>39783</v>
+        <v>3450428</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C168" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D168" t="n">
-        <v>2813450</v>
+        <v>4914745</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C169" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D169" t="n">
-        <v>1556244</v>
+        <v>262837</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C170" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D170" t="n">
-        <v>3112488</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
       <c r="D171" t="n">
-        <v>15480012</v>
+        <v>7347741</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C172" t="n">
         <v>2017</v>
       </c>
       <c r="D172" t="n">
-        <v>12050480</v>
+        <v>3608729</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C173" t="n">
         <v>2018</v>
       </c>
       <c r="D173" t="n">
-        <v>23334116</v>
+        <v>5276861</v>
       </c>
     </row>
     <row r="174">
@@ -3560,38 +3560,38 @@
         <v>135</v>
       </c>
       <c r="C174" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D174" t="n">
-        <v>2235460</v>
+        <v>2813450</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C175" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D175" t="n">
-        <v>7347741</v>
+        <v>1556244</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C176" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D176" t="n">
-        <v>3608729</v>
+        <v>3112488</v>
       </c>
     </row>
     <row r="177">
@@ -3602,52 +3602,52 @@
         <v>137</v>
       </c>
       <c r="C177" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>5276861</v>
+        <v>15480012</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C178" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D178" t="n">
-        <v>2588709</v>
+        <v>12050480</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C179" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D179" t="n">
-        <v>3450428</v>
+        <v>23334116</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C180" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D180" t="n">
-        <v>4914745</v>
+        <v>2235460</v>
       </c>
     </row>
     <row r="181">
@@ -3658,24 +3658,24 @@
         <v>139</v>
       </c>
       <c r="C181" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>262837</v>
+        <v>512047</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B182" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C182" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D182" t="n">
-        <v>192617</v>
+        <v>19949074</v>
       </c>
     </row>
     <row r="183">
@@ -3686,10 +3686,10 @@
         <v>141</v>
       </c>
       <c r="C183" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D183" t="n">
-        <v>39783</v>
+        <v>13037136</v>
       </c>
     </row>
     <row r="184">
@@ -3700,38 +3700,38 @@
         <v>141</v>
       </c>
       <c r="C184" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D184" t="n">
-        <v>39783</v>
+        <v>5870830</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B185" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C185" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D185" t="n">
-        <v>335383</v>
+        <v>263468</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B186" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C186" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D186" t="n">
-        <v>299457</v>
+        <v>193079</v>
       </c>
     </row>
     <row r="187">
@@ -3742,38 +3742,38 @@
         <v>143</v>
       </c>
       <c r="C187" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>432369</v>
+        <v>908311</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B188" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C188" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D188" t="n">
-        <v>12484692</v>
+        <v>946983</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B189" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C189" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D189" t="n">
-        <v>11841157</v>
+        <v>9121708</v>
       </c>
     </row>
     <row r="190">
@@ -3784,66 +3784,66 @@
         <v>145</v>
       </c>
       <c r="C190" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D190" t="n">
-        <v>10111248</v>
+        <v>335383</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B191" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C191" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D191" t="n">
-        <v>39783</v>
+        <v>299457</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C192" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D192" t="n">
-        <v>39783</v>
+        <v>432369</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B193" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>7912361</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B194" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C194" t="n">
         <v>2017</v>
       </c>
       <c r="D194" t="n">
-        <v>7536098</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="195">
@@ -3854,10 +3854,10 @@
         <v>149</v>
       </c>
       <c r="C195" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>6571853</v>
+        <v>12484692</v>
       </c>
     </row>
     <row r="196">
@@ -3868,10 +3868,10 @@
         <v>149</v>
       </c>
       <c r="C196" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D196" t="n">
-        <v>262837</v>
+        <v>11841157</v>
       </c>
     </row>
     <row r="197">
@@ -3882,10 +3882,10 @@
         <v>149</v>
       </c>
       <c r="C197" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D197" t="n">
-        <v>192617</v>
+        <v>10111248</v>
       </c>
     </row>
     <row r="198">
@@ -3899,7 +3899,7 @@
         <v>2016</v>
       </c>
       <c r="D198" t="n">
-        <v>19949074</v>
+        <v>7912361</v>
       </c>
     </row>
     <row r="199">
@@ -3913,7 +3913,7 @@
         <v>2017</v>
       </c>
       <c r="D199" t="n">
-        <v>13037136</v>
+        <v>7536098</v>
       </c>
     </row>
     <row r="200">
@@ -3927,7 +3927,7 @@
         <v>2018</v>
       </c>
       <c r="D200" t="n">
-        <v>5870830</v>
+        <v>6571853</v>
       </c>
     </row>
     <row r="201">
@@ -3941,7 +3941,7 @@
         <v>2019</v>
       </c>
       <c r="D201" t="n">
-        <v>263468</v>
+        <v>262837</v>
       </c>
     </row>
     <row r="202">
@@ -3955,7 +3955,7 @@
         <v>2020</v>
       </c>
       <c r="D202" t="n">
-        <v>193079</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="203">
@@ -3969,7 +3969,7 @@
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>908311</v>
+        <v>2023476</v>
       </c>
     </row>
     <row r="204">
@@ -3983,7 +3983,7 @@
         <v>2017</v>
       </c>
       <c r="D204" t="n">
-        <v>946983</v>
+        <v>1724484</v>
       </c>
     </row>
     <row r="205">
@@ -3997,7 +3997,7 @@
         <v>2018</v>
       </c>
       <c r="D205" t="n">
-        <v>9121708</v>
+        <v>1118581</v>
       </c>
     </row>
     <row r="206">
@@ -4011,7 +4011,7 @@
         <v>2016</v>
       </c>
       <c r="D206" t="n">
-        <v>2023476</v>
+        <v>550996</v>
       </c>
     </row>
     <row r="207">
@@ -4025,21 +4025,21 @@
         <v>2017</v>
       </c>
       <c r="D207" t="n">
-        <v>1724484</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B208" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C208" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D208" t="n">
-        <v>1118581</v>
+        <v>1299112</v>
       </c>
     </row>
     <row r="209">
@@ -4050,7 +4050,7 @@
         <v>157</v>
       </c>
       <c r="C209" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D209" t="n">
         <v>39783</v>
@@ -4058,16 +4058,16 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B210" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C210" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D210" t="n">
-        <v>39783</v>
+        <v>1049740</v>
       </c>
     </row>
     <row r="211">
@@ -4078,7 +4078,7 @@
         <v>159</v>
       </c>
       <c r="C211" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D211" t="n">
         <v>39783</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B212" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C212" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D212" t="n">
         <v>39783</v>
@@ -4106,10 +4106,10 @@
         <v>161</v>
       </c>
       <c r="C213" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D213" t="n">
-        <v>5220023</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="214">
@@ -4123,7 +4123,7 @@
         <v>2016</v>
       </c>
       <c r="D214" t="n">
-        <v>282055</v>
+        <v>57491472</v>
       </c>
     </row>
     <row r="215">
@@ -4137,21 +4137,21 @@
         <v>2017</v>
       </c>
       <c r="D215" t="n">
-        <v>147069</v>
+        <v>21292105</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B216" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C216" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D216" t="n">
-        <v>57491472</v>
+        <v>41687779</v>
       </c>
     </row>
     <row r="217">
@@ -4162,10 +4162,10 @@
         <v>165</v>
       </c>
       <c r="C217" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>21292105</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="218">
@@ -4176,10 +4176,10 @@
         <v>165</v>
       </c>
       <c r="C218" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D218" t="n">
-        <v>41687779</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="219">
@@ -4193,21 +4193,21 @@
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>6713838</v>
+        <v>282055</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C220" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D220" t="n">
-        <v>61008</v>
+        <v>147069</v>
       </c>
     </row>
     <row r="221">
@@ -4218,10 +4218,10 @@
         <v>169</v>
       </c>
       <c r="C221" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>43958</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="222">
@@ -4232,10 +4232,10 @@
         <v>169</v>
       </c>
       <c r="C222" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D222" t="n">
-        <v>43828</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="223">
@@ -4249,105 +4249,105 @@
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>37591381</v>
+        <v>6713838</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C224" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D224" t="n">
-        <v>20388107</v>
+        <v>891097</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B225" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C225" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D225" t="n">
-        <v>21530317</v>
+        <v>738103</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B226" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C226" t="n">
         <v>2016</v>
       </c>
       <c r="D226" t="n">
-        <v>457537</v>
+        <v>37591381</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B227" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C227" t="n">
         <v>2017</v>
       </c>
       <c r="D227" t="n">
-        <v>286163</v>
+        <v>20388107</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B228" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C228" t="n">
         <v>2018</v>
       </c>
       <c r="D228" t="n">
-        <v>359874</v>
+        <v>21530317</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B229" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C229" t="n">
         <v>2016</v>
       </c>
       <c r="D229" t="n">
-        <v>39783</v>
+        <v>3642339</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B230" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C230" t="n">
         <v>2017</v>
       </c>
       <c r="D230" t="n">
-        <v>39783</v>
+        <v>2440853</v>
       </c>
     </row>
     <row r="231">
@@ -4358,10 +4358,10 @@
         <v>177</v>
       </c>
       <c r="C231" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D231" t="n">
-        <v>2239080</v>
+        <v>704516</v>
       </c>
     </row>
     <row r="232">
@@ -4375,7 +4375,7 @@
         <v>2016</v>
       </c>
       <c r="D232" t="n">
-        <v>39014</v>
+        <v>5220023</v>
       </c>
     </row>
     <row r="233">
@@ -4386,38 +4386,38 @@
         <v>181</v>
       </c>
       <c r="C233" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D233" t="n">
-        <v>223412</v>
+        <v>61008</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B234" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C234" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D234" t="n">
-        <v>568908</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B235" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C235" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D235" t="n">
-        <v>489845</v>
+        <v>43828</v>
       </c>
     </row>
     <row r="236">
@@ -4428,21 +4428,21 @@
         <v>183</v>
       </c>
       <c r="C236" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D236" t="n">
-        <v>628271</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B237" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C237" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D237" t="n">
         <v>39783</v>
@@ -4456,10 +4456,10 @@
         <v>185</v>
       </c>
       <c r="C238" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D238" t="n">
-        <v>39783</v>
+        <v>223412</v>
       </c>
     </row>
     <row r="239">
@@ -4473,7 +4473,7 @@
         <v>2016</v>
       </c>
       <c r="D239" t="n">
-        <v>174135</v>
+        <v>35649951</v>
       </c>
     </row>
     <row r="240">
@@ -4487,21 +4487,21 @@
         <v>2017</v>
       </c>
       <c r="D240" t="n">
-        <v>213734</v>
+        <v>18071968</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B241" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C241" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D241" t="n">
-        <v>39783</v>
+        <v>22436370</v>
       </c>
     </row>
     <row r="242">
@@ -4512,10 +4512,10 @@
         <v>189</v>
       </c>
       <c r="C242" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D242" t="n">
-        <v>39783</v>
+        <v>39014</v>
       </c>
     </row>
     <row r="243">
@@ -4529,7 +4529,7 @@
         <v>2016</v>
       </c>
       <c r="D243" t="n">
-        <v>35649951</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="244">
@@ -4543,21 +4543,21 @@
         <v>2017</v>
       </c>
       <c r="D244" t="n">
-        <v>18071968</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B245" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C245" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D245" t="n">
-        <v>22436370</v>
+        <v>174135</v>
       </c>
     </row>
     <row r="246">
@@ -4568,186 +4568,186 @@
         <v>193</v>
       </c>
       <c r="C246" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D246" t="n">
-        <v>17641081</v>
+        <v>213734</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B247" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C247" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D247" t="n">
-        <v>19696866</v>
+        <v>568908</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B248" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C248" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D248" t="n">
-        <v>26425145</v>
+        <v>489845</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B249" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C249" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D249" t="n">
-        <v>1694328</v>
+        <v>628271</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B250" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C250" t="n">
         <v>2016</v>
       </c>
       <c r="D250" t="n">
-        <v>2371842</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B251" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C251" t="n">
         <v>2017</v>
       </c>
       <c r="D251" t="n">
-        <v>1080614</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B252" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C252" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D252" t="n">
-        <v>952892</v>
+        <v>2371842</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B253" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C253" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D253" t="n">
-        <v>1049740</v>
+        <v>1080614</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B254" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C254" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D254" t="n">
-        <v>39783</v>
+        <v>952892</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B255" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C255" t="n">
         <v>2016</v>
       </c>
       <c r="D255" t="n">
-        <v>12373103</v>
+        <v>17641081</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B256" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C256" t="n">
         <v>2017</v>
       </c>
       <c r="D256" t="n">
-        <v>10718378</v>
+        <v>19696866</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B257" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C257" t="n">
         <v>2018</v>
       </c>
       <c r="D257" t="n">
-        <v>19359679</v>
+        <v>26425145</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B258" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C258" t="n">
         <v>2019</v>
       </c>
       <c r="D258" t="n">
-        <v>2713740</v>
+        <v>1694328</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B259" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C259" t="n">
         <v>2016</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B260" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C260" t="n">
         <v>2017</v>
@@ -4772,30 +4772,30 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B261" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C261" t="n">
         <v>2016</v>
       </c>
       <c r="D261" t="n">
-        <v>39783</v>
+        <v>12373103</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B262" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C262" t="n">
         <v>2017</v>
       </c>
       <c r="D262" t="n">
-        <v>39783</v>
+        <v>10718378</v>
       </c>
     </row>
     <row r="263">
@@ -4806,24 +4806,24 @@
         <v>205</v>
       </c>
       <c r="C263" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D263" t="n">
-        <v>1279492</v>
+        <v>19359679</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B264" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C264" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D264" t="n">
-        <v>891097</v>
+        <v>2713740</v>
       </c>
     </row>
     <row r="265">
@@ -4834,10 +4834,10 @@
         <v>207</v>
       </c>
       <c r="C265" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D265" t="n">
-        <v>738103</v>
+        <v>1279492</v>
       </c>
     </row>
     <row r="266">
@@ -4915,18 +4915,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>215</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4934,49 +4937,58 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>58155308</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>17495985</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>16949965</v>
       </c>
-      <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>39783</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>39783</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>39783</v>
+      </c>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
         <v>13717137</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>14220413</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>6349653</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>262837</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>192617</v>
       </c>
     </row>
@@ -4984,1527 +4996,1830 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>14682868</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>12045916</v>
+        <v>1548485</v>
       </c>
       <c r="D5" t="n">
-        <v>18343700</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1117722</v>
-      </c>
+        <v>39783</v>
+      </c>
+      <c r="E5"/>
       <c r="F5"/>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>635055</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>349024</v>
+        <v>4570749</v>
       </c>
       <c r="D6" t="n">
-        <v>201004</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>4092491</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5010591</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1492800</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>4570749</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>4092491</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5010591</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1492800</v>
-      </c>
+        <v>35925</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
         <v>5086260</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>7426683</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>3635166</v>
       </c>
-      <c r="E8"/>
       <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
         <v>13200</v>
       </c>
-      <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
+      <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>35925</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14682868</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12045916</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18343700</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1117722</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>1548485</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>635055</v>
+      </c>
+      <c r="D11" t="n">
+        <v>349024</v>
+      </c>
+      <c r="E11" t="n">
+        <v>201004</v>
+      </c>
       <c r="F11"/>
+      <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>11921731</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2523437</v>
+        <v>962168</v>
       </c>
       <c r="D12" t="n">
-        <v>2374116</v>
+        <v>1018290</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>5599074</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2482953</v>
+      </c>
+      <c r="D13" t="n">
+        <v>919416</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1671349</v>
+      </c>
       <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>2421393</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>2588096</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3220443</v>
-      </c>
+        <v>5599074</v>
+      </c>
+      <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>564020</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>1058936</v>
+        <v>2239080</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>2482953</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>919416</v>
+        <v>564020</v>
       </c>
       <c r="D16" t="n">
-        <v>1671349</v>
+        <v>1058936</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
         <v>24908289</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>8073879</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>17704982</v>
       </c>
-      <c r="E17"/>
       <c r="F17"/>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
         <v>254478</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>263655</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>357171</v>
       </c>
-      <c r="E18"/>
       <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>798549</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>664015</v>
+        <v>2421393</v>
       </c>
       <c r="D19" t="n">
-        <v>377505</v>
-      </c>
-      <c r="E19"/>
+        <v>2588096</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3220443</v>
+      </c>
       <c r="F19"/>
+      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>560874</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>798549</v>
+      </c>
+      <c r="D20" t="n">
+        <v>664015</v>
+      </c>
+      <c r="E20" t="n">
+        <v>377505</v>
+      </c>
       <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>1049740</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>39783</v>
+        <v>560874</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>863575</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>756348</v>
+        <v>1049740</v>
       </c>
       <c r="D22" t="n">
-        <v>492624</v>
+        <v>39783</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>219169</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>177298</v>
+        <v>863575</v>
       </c>
       <c r="D23" t="n">
-        <v>176775</v>
-      </c>
-      <c r="E23"/>
+        <v>756348</v>
+      </c>
+      <c r="E23" t="n">
+        <v>492624</v>
+      </c>
       <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>2438895</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>3442524</v>
+        <v>11921731</v>
       </c>
       <c r="D24" t="n">
-        <v>2467873</v>
-      </c>
-      <c r="E24"/>
+        <v>2523437</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2374116</v>
+      </c>
       <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>63707831</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>49110085</v>
+        <v>219169</v>
       </c>
       <c r="D25" t="n">
-        <v>89727354</v>
+        <v>177298</v>
       </c>
       <c r="E25" t="n">
-        <v>28475160</v>
+        <v>176775</v>
       </c>
       <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>925054</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
+        <v>2438895</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3442524</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2467873</v>
+      </c>
       <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>31737163</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>27510203</v>
+        <v>457537</v>
       </c>
       <c r="D27" t="n">
-        <v>18204211</v>
+        <v>286163</v>
       </c>
       <c r="E27" t="n">
-        <v>1117722</v>
+        <v>359874</v>
       </c>
       <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>40566</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>63707831</v>
+      </c>
+      <c r="D28" t="n">
+        <v>49110085</v>
+      </c>
+      <c r="E28" t="n">
+        <v>89727354</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28475160</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>1341784</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>1742064</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3528294</v>
-      </c>
-      <c r="E29" t="n">
-        <v>958047</v>
-      </c>
+        <v>40566</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>4586662</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>1620744</v>
+        <v>31737163</v>
       </c>
       <c r="D30" t="n">
-        <v>1262977</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>27510203</v>
+      </c>
+      <c r="E30" t="n">
+        <v>18204211</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1117722</v>
+      </c>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>2175800</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>197300</v>
+        <v>925054</v>
       </c>
       <c r="D31" t="n">
-        <v>157052</v>
+        <v>39783</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>13405617</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>9831287</v>
+        <v>4586662</v>
       </c>
       <c r="D32" t="n">
-        <v>14118032</v>
+        <v>1620744</v>
       </c>
       <c r="E32" t="n">
-        <v>4105200</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2425800</v>
-      </c>
+        <v>1262977</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>31169353</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>9642922</v>
+        <v>1341784</v>
       </c>
       <c r="D33" t="n">
-        <v>11430177</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>1742064</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3528294</v>
+      </c>
+      <c r="F33" t="n">
+        <v>958047</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>17757195</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>19345816</v>
+        <v>2175800</v>
       </c>
       <c r="D34" t="n">
-        <v>25154958</v>
+        <v>197300</v>
       </c>
       <c r="E34" t="n">
-        <v>2293131</v>
-      </c>
-      <c r="F34" t="n">
-        <v>192617</v>
-      </c>
+        <v>157052</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>2222582</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>2977997</v>
+        <v>31169353</v>
       </c>
       <c r="D35" t="n">
-        <v>3985649</v>
+        <v>9642922</v>
       </c>
       <c r="E35" t="n">
-        <v>262837</v>
-      </c>
-      <c r="F35" t="n">
-        <v>192617</v>
-      </c>
+        <v>11430177</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>2874982</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>4901734</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>13405617</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9831287</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14118032</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4105200</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2425800</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>8986326</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1001527</v>
+        <v>2222582</v>
       </c>
       <c r="D37" t="n">
-        <v>2375541</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>2977997</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3985649</v>
+      </c>
+      <c r="F37" t="n">
+        <v>262837</v>
+      </c>
+      <c r="G37" t="n">
+        <v>192617</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>9281116</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>5642242</v>
+        <v>17757195</v>
       </c>
       <c r="D38" t="n">
-        <v>5066367</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>19345816</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25154958</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2293131</v>
+      </c>
+      <c r="G38" t="n">
+        <v>192617</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>15737719</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>11599217</v>
+        <v>2874982</v>
       </c>
       <c r="D39" t="n">
-        <v>13150132</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2761680</v>
-      </c>
+        <v>4901734</v>
+      </c>
+      <c r="E39"/>
       <c r="F39"/>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8986326</v>
+      </c>
       <c r="D40" t="n">
-        <v>139632</v>
-      </c>
-      <c r="E40"/>
+        <v>1001527</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2375541</v>
+      </c>
       <c r="F40"/>
+      <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>962168</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>1018290</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
+        <v>9281116</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5642242</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5066367</v>
+      </c>
       <c r="F41"/>
+      <c r="G41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>39783</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>15737719</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11599217</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13150132</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2761680</v>
+      </c>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>550996</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>39783</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="n">
+        <v>39783</v>
+      </c>
       <c r="E43"/>
       <c r="F43"/>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>512047</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44"/>
+      <c r="E44" t="n">
+        <v>139632</v>
+      </c>
       <c r="F44"/>
+      <c r="G44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
         <v>187221</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>127840</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>257106</v>
       </c>
-      <c r="E45"/>
       <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
         <v>559800</v>
       </c>
-      <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
+      <c r="G46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>1299112</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
         <v>39783</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="n">
+        <v>39783</v>
+      </c>
       <c r="E47"/>
       <c r="F47"/>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>3642339</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2440853</v>
-      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48"/>
       <c r="D48" t="n">
-        <v>704516</v>
+        <v>256760</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
-        <v>256760</v>
+        <v>256023</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>39783</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
+        <v>916257</v>
+      </c>
+      <c r="D50" t="n">
+        <v>797386</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1699276</v>
+      </c>
       <c r="F50"/>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>256023</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2692992</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2600843</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2119570</v>
+      </c>
       <c r="F51"/>
+      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>3802773</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>171825</v>
+        <v>39783</v>
       </c>
       <c r="D52" t="n">
-        <v>3390872</v>
+        <v>39783</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>916257</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>797386</v>
+        <v>39783</v>
       </c>
       <c r="D53" t="n">
-        <v>1699276</v>
+        <v>39783</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
         <v>42578310</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>50217489</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>73187502</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>1134528</v>
       </c>
-      <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>7029507</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>7679834</v>
-      </c>
-      <c r="D55" t="n">
-        <v>13157529</v>
-      </c>
+        <v>372065</v>
+      </c>
+      <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
+      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>1196900</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>1159392</v>
+        <v>39783</v>
       </c>
       <c r="D56" t="n">
-        <v>1439218</v>
+        <v>39783</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>372065</v>
-      </c>
-      <c r="C57"/>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>36993</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
+      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>511213</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1196900</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1159392</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1439218</v>
+      </c>
       <c r="F58"/>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>39783</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>39783</v>
+        <v>511213</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>39783</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
+        <v>3802773</v>
+      </c>
+      <c r="D60" t="n">
+        <v>171825</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3390872</v>
+      </c>
       <c r="F60"/>
+      <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>2692992</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>2600843</v>
+        <v>20119196</v>
       </c>
       <c r="D61" t="n">
-        <v>2119570</v>
-      </c>
-      <c r="E61"/>
+        <v>13729517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6295683</v>
+      </c>
       <c r="F61"/>
+      <c r="G61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>36993</v>
-      </c>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7029507</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7679834</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13157529</v>
+      </c>
       <c r="F62"/>
+      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>39783</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D63"/>
+        <v>55825</v>
+      </c>
+      <c r="D63" t="n">
+        <v>39783</v>
+      </c>
       <c r="E63"/>
       <c r="F63"/>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>20119196</v>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>13729517</v>
+        <v>39783</v>
       </c>
       <c r="D64" t="n">
-        <v>6295683</v>
+        <v>39783</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>55825</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
+        <v>2588709</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3450428</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4914745</v>
+      </c>
+      <c r="F65" t="n">
+        <v>262837</v>
+      </c>
+      <c r="G65" t="n">
+        <v>192617</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>2813450</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>1556244</v>
+        <v>7347741</v>
       </c>
       <c r="D66" t="n">
-        <v>3112488</v>
-      </c>
-      <c r="E66"/>
+        <v>3608729</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5276861</v>
+      </c>
       <c r="F66"/>
+      <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>15480012</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>12050480</v>
+        <v>2813450</v>
       </c>
       <c r="D67" t="n">
-        <v>23334116</v>
+        <v>1556244</v>
       </c>
       <c r="E67" t="n">
-        <v>2235460</v>
+        <v>3112488</v>
       </c>
       <c r="F67"/>
+      <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>7347741</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>3608729</v>
+        <v>15480012</v>
       </c>
       <c r="D68" t="n">
-        <v>5276861</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68"/>
+        <v>12050480</v>
+      </c>
+      <c r="E68" t="n">
+        <v>23334116</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2235460</v>
+      </c>
+      <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>2588709</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>3450428</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4914745</v>
-      </c>
-      <c r="E69" t="n">
-        <v>262837</v>
-      </c>
-      <c r="F69" t="n">
-        <v>192617</v>
-      </c>
+        <v>512047</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>39783</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
+        <v>19949074</v>
+      </c>
+      <c r="D70" t="n">
+        <v>13037136</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5870830</v>
+      </c>
+      <c r="F70" t="n">
+        <v>263468</v>
+      </c>
+      <c r="G70" t="n">
+        <v>193079</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>335383</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>299457</v>
+        <v>908311</v>
       </c>
       <c r="D71" t="n">
-        <v>432369</v>
-      </c>
-      <c r="E71"/>
+        <v>946983</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9121708</v>
+      </c>
       <c r="F71"/>
+      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>12484692</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>11841157</v>
+        <v>335383</v>
       </c>
       <c r="D72" t="n">
-        <v>10111248</v>
-      </c>
-      <c r="E72"/>
+        <v>299457</v>
+      </c>
+      <c r="E72" t="n">
+        <v>432369</v>
+      </c>
       <c r="F72"/>
+      <c r="G72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>39783</v>
+      <c r="B73" t="s">
+        <v>147</v>
       </c>
       <c r="C73" t="n">
         <v>39783</v>
       </c>
-      <c r="D73"/>
+      <c r="D73" t="n">
+        <v>39783</v>
+      </c>
       <c r="E73"/>
       <c r="F73"/>
+      <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>7912361</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>7536098</v>
+        <v>12484692</v>
       </c>
       <c r="D74" t="n">
-        <v>6571853</v>
+        <v>11841157</v>
       </c>
       <c r="E74" t="n">
-        <v>262837</v>
-      </c>
-      <c r="F74" t="n">
-        <v>192617</v>
-      </c>
+        <v>10111248</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>19949074</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>13037136</v>
+        <v>7912361</v>
       </c>
       <c r="D75" t="n">
-        <v>5870830</v>
+        <v>7536098</v>
       </c>
       <c r="E75" t="n">
-        <v>263468</v>
+        <v>6571853</v>
       </c>
       <c r="F75" t="n">
-        <v>193079</v>
+        <v>262837</v>
+      </c>
+      <c r="G75" t="n">
+        <v>192617</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>908311</v>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>946983</v>
+        <v>2023476</v>
       </c>
       <c r="D76" t="n">
-        <v>9121708</v>
-      </c>
-      <c r="E76"/>
+        <v>1724484</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1118581</v>
+      </c>
       <c r="F76"/>
+      <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>2023476</v>
+      <c r="B77" t="s">
+        <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>1724484</v>
+        <v>550996</v>
       </c>
       <c r="D77" t="n">
-        <v>1118581</v>
+        <v>39783</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
+      <c r="G77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>39783</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D78"/>
+        <v>1299112</v>
+      </c>
+      <c r="D78" t="n">
+        <v>39783</v>
+      </c>
       <c r="E78"/>
       <c r="F78"/>
+      <c r="G78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>39783</v>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D79"/>
+        <v>1049740</v>
+      </c>
+      <c r="D79" t="n">
+        <v>39783</v>
+      </c>
       <c r="E79"/>
       <c r="F79"/>
+      <c r="G79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>5220023</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>39783</v>
+      </c>
+      <c r="D80" t="n">
+        <v>39783</v>
+      </c>
       <c r="E80"/>
       <c r="F80"/>
+      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>282055</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>147069</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81"/>
+        <v>57491472</v>
+      </c>
+      <c r="D81" t="n">
+        <v>21292105</v>
+      </c>
+      <c r="E81" t="n">
+        <v>41687779</v>
+      </c>
       <c r="F81"/>
+      <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>57491472</v>
+      <c r="B82" t="s">
+        <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v>21292105</v>
+        <v>39783</v>
       </c>
       <c r="D82" t="n">
-        <v>41687779</v>
+        <v>39783</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
+      <c r="G82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>6713838</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83"/>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>282055</v>
+      </c>
+      <c r="D83" t="n">
+        <v>147069</v>
+      </c>
       <c r="E83"/>
       <c r="F83"/>
+      <c r="G83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>61008</v>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v>43958</v>
+        <v>39783</v>
       </c>
       <c r="D84" t="n">
-        <v>43828</v>
+        <v>39783</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
+      <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>37591381</v>
+      <c r="B85" t="s">
+        <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v>20388107</v>
-      </c>
-      <c r="D85" t="n">
-        <v>21530317</v>
-      </c>
+        <v>6713838</v>
+      </c>
+      <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
+      <c r="G85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>457537</v>
+      <c r="B86" t="s">
+        <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>286163</v>
+        <v>891097</v>
       </c>
       <c r="D86" t="n">
-        <v>359874</v>
+        <v>738103</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>39783</v>
+      <c r="B87" t="s">
+        <v>175</v>
       </c>
       <c r="C87" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87"/>
+        <v>37591381</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20388107</v>
+      </c>
+      <c r="E87" t="n">
+        <v>21530317</v>
+      </c>
       <c r="F87"/>
+      <c r="G87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>2239080</v>
-      </c>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3642339</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2440853</v>
+      </c>
+      <c r="E88" t="n">
+        <v>704516</v>
+      </c>
       <c r="F88"/>
+      <c r="G88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>39014</v>
-      </c>
-      <c r="C89"/>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5220023</v>
+      </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
+      <c r="G89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90"/>
-      <c r="C90"/>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>61008</v>
+      </c>
       <c r="D90" t="n">
-        <v>223412</v>
-      </c>
-      <c r="E90"/>
+        <v>43958</v>
+      </c>
+      <c r="E90" t="n">
+        <v>43828</v>
+      </c>
       <c r="F90"/>
+      <c r="G90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>568908</v>
+      <c r="B91" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>489845</v>
+        <v>39783</v>
       </c>
       <c r="D91" t="n">
-        <v>628271</v>
+        <v>39783</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
+      <c r="G91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>39783</v>
-      </c>
-      <c r="C92" t="n">
-        <v>39783</v>
-      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92"/>
       <c r="D92"/>
-      <c r="E92"/>
+      <c r="E92" t="n">
+        <v>223412</v>
+      </c>
       <c r="F92"/>
+      <c r="G92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>174135</v>
+      <c r="B93" t="s">
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>213734</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93"/>
+        <v>35649951</v>
+      </c>
+      <c r="D93" t="n">
+        <v>18071968</v>
+      </c>
+      <c r="E93" t="n">
+        <v>22436370</v>
+      </c>
       <c r="F93"/>
+      <c r="G93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>39783</v>
+      <c r="B94" t="s">
+        <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v>39783</v>
+        <v>39014</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
+      <c r="G94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>35649951</v>
+      <c r="B95" t="s">
+        <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>18071968</v>
+        <v>39783</v>
       </c>
       <c r="D95" t="n">
-        <v>22436370</v>
+        <v>39783</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
+      <c r="G95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>17641081</v>
+      <c r="B96" t="s">
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>19696866</v>
+        <v>174135</v>
       </c>
       <c r="D96" t="n">
-        <v>26425145</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1694328</v>
-      </c>
+        <v>213734</v>
+      </c>
+      <c r="E96"/>
       <c r="F96"/>
+      <c r="G96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>2371842</v>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>1080614</v>
+        <v>568908</v>
       </c>
       <c r="D97" t="n">
-        <v>952892</v>
-      </c>
-      <c r="E97"/>
+        <v>489845</v>
+      </c>
+      <c r="E97" t="n">
+        <v>628271</v>
+      </c>
       <c r="F97"/>
+      <c r="G97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>1049740</v>
+      <c r="B98" t="s">
+        <v>197</v>
       </c>
       <c r="C98" t="n">
         <v>39783</v>
       </c>
-      <c r="D98"/>
+      <c r="D98" t="n">
+        <v>39783</v>
+      </c>
       <c r="E98"/>
       <c r="F98"/>
+      <c r="G98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>12373103</v>
+      <c r="B99" t="s">
+        <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v>10718378</v>
+        <v>2371842</v>
       </c>
       <c r="D99" t="n">
-        <v>19359679</v>
+        <v>1080614</v>
       </c>
       <c r="E99" t="n">
-        <v>2713740</v>
+        <v>952892</v>
       </c>
       <c r="F99"/>
+      <c r="G99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>39783</v>
+      <c r="B100" t="s">
+        <v>201</v>
       </c>
       <c r="C100" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
+        <v>17641081</v>
+      </c>
+      <c r="D100" t="n">
+        <v>19696866</v>
+      </c>
+      <c r="E100" t="n">
+        <v>26425145</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1694328</v>
+      </c>
+      <c r="G100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>39783</v>
+      <c r="B101" t="s">
+        <v>203</v>
       </c>
       <c r="C101" t="n">
         <v>39783</v>
       </c>
-      <c r="D101"/>
+      <c r="D101" t="n">
+        <v>39783</v>
+      </c>
       <c r="E101"/>
       <c r="F101"/>
+      <c r="G101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>1279492</v>
-      </c>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12373103</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10718378</v>
+      </c>
+      <c r="E102" t="n">
+        <v>19359679</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2713740</v>
+      </c>
+      <c r="G102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>891097</v>
+      <c r="B103" t="s">
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>738103</v>
+        <v>1279492</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
+      <c r="G103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
         <v>1329613</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>1063139</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>400323</v>
       </c>
-      <c r="E104"/>
       <c r="F104"/>
+      <c r="G104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
         <v>9516</v>
       </c>
-      <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
+      <c r="G105"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
+++ b/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
@@ -46,6 +46,36 @@
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">BZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -58,34 +88,76 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -94,66 +166,6 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
     <t xml:space="preserve">EC</t>
   </si>
   <si>
@@ -166,28 +178,40 @@
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">SV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
     <t xml:space="preserve">GD</t>
   </si>
   <si>
     <t xml:space="preserve">Grenada</t>
   </si>
   <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
     <t xml:space="preserve">GN</t>
@@ -196,28 +220,28 @@
     <t xml:space="preserve">Guinea</t>
   </si>
   <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
     <t xml:space="preserve">GY</t>
   </si>
   <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
     <t xml:space="preserve">HN</t>
   </si>
   <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -226,12 +250,6 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
@@ -256,22 +274,208 @@
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
     <t xml:space="preserve">KG</t>
   </si>
   <si>
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
+    <t xml:space="preserve">LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
     <t xml:space="preserve">KN</t>
@@ -280,274 +484,100 @@
     <t xml:space="preserve">Saint Kitts and Nevis</t>
   </si>
   <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
     <t xml:space="preserve">LC</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Lucia</t>
   </si>
   <si>
+    <t xml:space="preserve">VC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SR</t>
   </si>
   <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">SZ</t>
   </si>
   <si>
     <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">TJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">TH</t>
@@ -556,10 +586,16 @@
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
-    <t xml:space="preserve">TJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
+    <t xml:space="preserve">TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t xml:space="preserve">TN</t>
@@ -568,28 +604,16 @@
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
-    <t xml:space="preserve">TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
     <t xml:space="preserve">TV</t>
   </si>
   <si>
     <t xml:space="preserve">Tuvalu</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
@@ -598,16 +622,10 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; the Grenadines</t>
+    <t xml:space="preserve">VU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
     <t xml:space="preserve">VN</t>
@@ -616,28 +634,10 @@
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">VU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1295,7 +1295,7 @@
         <v>2016</v>
       </c>
       <c r="D12" t="n">
-        <v>14682868</v>
+        <v>1548485</v>
       </c>
     </row>
     <row r="13">
@@ -1309,35 +1309,35 @@
         <v>2017</v>
       </c>
       <c r="D13" t="n">
-        <v>12045916</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="n">
-        <v>18343700</v>
+        <v>4570749</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="n">
-        <v>1117722</v>
+        <v>4092491</v>
       </c>
     </row>
     <row r="16">
@@ -1348,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D16" t="n">
-        <v>635055</v>
+        <v>5010591</v>
       </c>
     </row>
     <row r="17">
@@ -1362,150 +1362,150 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D17" t="n">
-        <v>349024</v>
+        <v>1492800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D18" t="n">
-        <v>201004</v>
+        <v>35925</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>4570749</v>
+        <v>5086260</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
         <v>2017</v>
       </c>
       <c r="D20" t="n">
-        <v>4092491</v>
+        <v>7426683</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
         <v>2018</v>
       </c>
       <c r="D21" t="n">
-        <v>5010591</v>
+        <v>3635166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="n">
-        <v>1492800</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>5086260</v>
+        <v>14682868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
         <v>2017</v>
       </c>
       <c r="D24" t="n">
-        <v>7426683</v>
+        <v>12045916</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
       </c>
       <c r="D25" t="n">
-        <v>3635166</v>
+        <v>18343700</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D26" t="n">
-        <v>13200</v>
+        <v>1117722</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>35925</v>
+        <v>635055</v>
       </c>
     </row>
     <row r="28">
@@ -1516,10 +1516,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D28" t="n">
-        <v>1548485</v>
+        <v>349024</v>
       </c>
     </row>
     <row r="29">
@@ -1530,10 +1530,10 @@
         <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="n">
-        <v>39783</v>
+        <v>201004</v>
       </c>
     </row>
     <row r="30">
@@ -1547,7 +1547,7 @@
         <v>2016</v>
       </c>
       <c r="D30" t="n">
-        <v>11921731</v>
+        <v>2421393</v>
       </c>
     </row>
     <row r="31">
@@ -1561,7 +1561,7 @@
         <v>2017</v>
       </c>
       <c r="D31" t="n">
-        <v>2523437</v>
+        <v>2588096</v>
       </c>
     </row>
     <row r="32">
@@ -1575,7 +1575,7 @@
         <v>2018</v>
       </c>
       <c r="D32" t="n">
-        <v>2374116</v>
+        <v>3220443</v>
       </c>
     </row>
     <row r="33">
@@ -1589,21 +1589,21 @@
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>5599074</v>
+        <v>962168</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D34" t="n">
-        <v>2421393</v>
+        <v>1018290</v>
       </c>
     </row>
     <row r="35">
@@ -1614,10 +1614,10 @@
         <v>29</v>
       </c>
       <c r="C35" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>2588096</v>
+        <v>2482953</v>
       </c>
     </row>
     <row r="36">
@@ -1628,24 +1628,24 @@
         <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="n">
-        <v>3220443</v>
+        <v>919416</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D37" t="n">
-        <v>564020</v>
+        <v>1671349</v>
       </c>
     </row>
     <row r="38">
@@ -1656,10 +1656,10 @@
         <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D38" t="n">
-        <v>1058936</v>
+        <v>5599074</v>
       </c>
     </row>
     <row r="39">
@@ -1673,43 +1673,43 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>2482953</v>
+        <v>2239080</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D40" t="n">
-        <v>919416</v>
+        <v>564020</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D41" t="n">
-        <v>1671349</v>
+        <v>1058936</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" t="n">
         <v>2016</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" t="n">
         <v>2017</v>
@@ -1734,10 +1734,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" t="n">
         <v>2018</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C45" t="n">
         <v>2016</v>
@@ -1762,10 +1762,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
         <v>2017</v>
@@ -1776,10 +1776,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C47" t="n">
         <v>2018</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C48" t="n">
         <v>2016</v>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n">
         <v>2017</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" t="n">
         <v>2018</v>
@@ -1832,10 +1832,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n">
         <v>2016</v>
@@ -1846,10 +1846,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C52" t="n">
         <v>2016</v>
@@ -1860,10 +1860,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C53" t="n">
         <v>2017</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C54" t="n">
         <v>2016</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C55" t="n">
         <v>2017</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C56" t="n">
         <v>2018</v>
@@ -1916,234 +1916,234 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>219169</v>
+        <v>11921731</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C58" t="n">
         <v>2017</v>
       </c>
       <c r="D58" t="n">
-        <v>177298</v>
+        <v>2523437</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C59" t="n">
         <v>2018</v>
       </c>
       <c r="D59" t="n">
-        <v>176775</v>
+        <v>2374116</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C60" t="n">
         <v>2016</v>
       </c>
       <c r="D60" t="n">
-        <v>2438895</v>
+        <v>219169</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C61" t="n">
         <v>2017</v>
       </c>
       <c r="D61" t="n">
-        <v>3442524</v>
+        <v>177298</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C62" t="n">
         <v>2018</v>
       </c>
       <c r="D62" t="n">
-        <v>2467873</v>
+        <v>176775</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>63707831</v>
+        <v>2438895</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C64" t="n">
         <v>2017</v>
       </c>
       <c r="D64" t="n">
-        <v>49110085</v>
+        <v>3442524</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C65" t="n">
         <v>2018</v>
       </c>
       <c r="D65" t="n">
-        <v>89727354</v>
+        <v>2467873</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C66" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D66" t="n">
-        <v>28475160</v>
+        <v>457537</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D67" t="n">
-        <v>925054</v>
+        <v>286163</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C68" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="n">
-        <v>39783</v>
+        <v>359874</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>31737163</v>
+        <v>63707831</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C70" t="n">
         <v>2017</v>
       </c>
       <c r="D70" t="n">
-        <v>27510203</v>
+        <v>49110085</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C71" t="n">
         <v>2018</v>
       </c>
       <c r="D71" t="n">
-        <v>18204211</v>
+        <v>89727354</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C72" t="n">
         <v>2019</v>
       </c>
       <c r="D72" t="n">
-        <v>1117722</v>
+        <v>28475160</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C73" t="n">
         <v>2016</v>
@@ -2154,464 +2154,464 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C74" t="n">
         <v>2016</v>
       </c>
       <c r="D74" t="n">
-        <v>1341784</v>
+        <v>31737163</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C75" t="n">
         <v>2017</v>
       </c>
       <c r="D75" t="n">
-        <v>1742064</v>
+        <v>27510203</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C76" t="n">
         <v>2018</v>
       </c>
       <c r="D76" t="n">
-        <v>3528294</v>
+        <v>18204211</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C77" t="n">
         <v>2019</v>
       </c>
       <c r="D77" t="n">
-        <v>958047</v>
+        <v>1117722</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C78" t="n">
         <v>2016</v>
       </c>
       <c r="D78" t="n">
-        <v>4586662</v>
+        <v>925054</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C79" t="n">
         <v>2017</v>
       </c>
       <c r="D79" t="n">
-        <v>1620744</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C80" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D80" t="n">
-        <v>1262977</v>
+        <v>4586662</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C81" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D81" t="n">
-        <v>2175800</v>
+        <v>1620744</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C82" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D82" t="n">
-        <v>197300</v>
+        <v>1262977</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C83" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>157052</v>
+        <v>1341784</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C84" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D84" t="n">
-        <v>13405617</v>
+        <v>1742064</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C85" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D85" t="n">
-        <v>9831287</v>
+        <v>3528294</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C86" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D86" t="n">
-        <v>14118032</v>
+        <v>958047</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C87" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D87" t="n">
-        <v>4105200</v>
+        <v>2175800</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C88" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D88" t="n">
-        <v>2425800</v>
+        <v>197300</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C89" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D89" t="n">
-        <v>31169353</v>
+        <v>157052</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C90" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D90" t="n">
-        <v>9642922</v>
+        <v>31169353</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C91" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D91" t="n">
-        <v>11430177</v>
+        <v>9642922</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C92" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D92" t="n">
-        <v>17757195</v>
+        <v>11430177</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C93" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>19345816</v>
+        <v>13405617</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C94" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D94" t="n">
-        <v>25154958</v>
+        <v>9831287</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C95" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D95" t="n">
-        <v>2293131</v>
+        <v>14118032</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C96" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D96" t="n">
-        <v>192617</v>
+        <v>4105200</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C97" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D97" t="n">
-        <v>2222582</v>
+        <v>2425800</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C98" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D98" t="n">
-        <v>2977997</v>
+        <v>2222582</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C99" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D99" t="n">
-        <v>3985649</v>
+        <v>2977997</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C100" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D100" t="n">
-        <v>262837</v>
+        <v>3985649</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C101" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D101" t="n">
-        <v>192617</v>
+        <v>262837</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C102" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D102" t="n">
-        <v>2874982</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B103" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C103" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>4901734</v>
+        <v>17757195</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C104" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D104" t="n">
-        <v>8986326</v>
+        <v>19345816</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C105" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D105" t="n">
-        <v>1001527</v>
+        <v>25154958</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C106" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D106" t="n">
-        <v>2375541</v>
+        <v>2293131</v>
       </c>
     </row>
     <row r="107">
@@ -2622,108 +2622,108 @@
         <v>77</v>
       </c>
       <c r="C107" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D107" t="n">
-        <v>9281116</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C108" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D108" t="n">
-        <v>5642242</v>
+        <v>2874982</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C109" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D109" t="n">
-        <v>5066367</v>
+        <v>4901734</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B110" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C110" t="n">
         <v>2016</v>
       </c>
       <c r="D110" t="n">
-        <v>15737719</v>
+        <v>8986326</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C111" t="n">
         <v>2017</v>
       </c>
       <c r="D111" t="n">
-        <v>11599217</v>
+        <v>1001527</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B112" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C112" t="n">
         <v>2018</v>
       </c>
       <c r="D112" t="n">
-        <v>13150132</v>
+        <v>2375541</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C113" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>2761680</v>
+        <v>9281116</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C114" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D114" t="n">
-        <v>139632</v>
+        <v>5642242</v>
       </c>
     </row>
     <row r="115">
@@ -2734,24 +2734,24 @@
         <v>83</v>
       </c>
       <c r="C115" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D115" t="n">
-        <v>962168</v>
+        <v>5066367</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C116" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D116" t="n">
-        <v>1018290</v>
+        <v>15737719</v>
       </c>
     </row>
     <row r="117">
@@ -2762,10 +2762,10 @@
         <v>85</v>
       </c>
       <c r="C117" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D117" t="n">
-        <v>39783</v>
+        <v>11599217</v>
       </c>
     </row>
     <row r="118">
@@ -2776,24 +2776,24 @@
         <v>85</v>
       </c>
       <c r="C118" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D118" t="n">
-        <v>39783</v>
+        <v>13150132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C119" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D119" t="n">
-        <v>550996</v>
+        <v>2761680</v>
       </c>
     </row>
     <row r="120">
@@ -2804,7 +2804,7 @@
         <v>87</v>
       </c>
       <c r="C120" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D120" t="n">
         <v>39783</v>
@@ -2812,30 +2812,30 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C121" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D121" t="n">
-        <v>512047</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B122" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C122" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D122" t="n">
-        <v>187221</v>
+        <v>139632</v>
       </c>
     </row>
     <row r="123">
@@ -2846,10 +2846,10 @@
         <v>91</v>
       </c>
       <c r="C123" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>127840</v>
+        <v>187221</v>
       </c>
     </row>
     <row r="124">
@@ -2860,38 +2860,38 @@
         <v>91</v>
       </c>
       <c r="C124" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D124" t="n">
-        <v>257106</v>
+        <v>127840</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B125" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C125" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D125" t="n">
-        <v>559800</v>
+        <v>257106</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B126" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C126" t="n">
         <v>2016</v>
       </c>
       <c r="D126" t="n">
-        <v>1299112</v>
+        <v>559800</v>
       </c>
     </row>
     <row r="127">
@@ -2902,7 +2902,7 @@
         <v>95</v>
       </c>
       <c r="C127" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D127" t="n">
         <v>39783</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C128" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D128" t="n">
-        <v>3642339</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="129">
@@ -2933,35 +2933,35 @@
         <v>2017</v>
       </c>
       <c r="D129" t="n">
-        <v>2440853</v>
+        <v>256760</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C130" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D130" t="n">
-        <v>704516</v>
+        <v>256023</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B131" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C131" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>256760</v>
+        <v>916257</v>
       </c>
     </row>
     <row r="132">
@@ -2972,10 +2972,10 @@
         <v>101</v>
       </c>
       <c r="C132" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D132" t="n">
-        <v>39783</v>
+        <v>797386</v>
       </c>
     </row>
     <row r="133">
@@ -2986,10 +2986,10 @@
         <v>101</v>
       </c>
       <c r="C133" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D133" t="n">
-        <v>39783</v>
+        <v>1699276</v>
       </c>
     </row>
     <row r="134">
@@ -3003,35 +3003,35 @@
         <v>2016</v>
       </c>
       <c r="D134" t="n">
-        <v>256023</v>
+        <v>2692992</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C135" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D135" t="n">
-        <v>3802773</v>
+        <v>2600843</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C136" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D136" t="n">
-        <v>171825</v>
+        <v>2119570</v>
       </c>
     </row>
     <row r="137">
@@ -3042,24 +3042,24 @@
         <v>105</v>
       </c>
       <c r="C137" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D137" t="n">
-        <v>3390872</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C138" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D138" t="n">
-        <v>916257</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="139">
@@ -3070,10 +3070,10 @@
         <v>107</v>
       </c>
       <c r="C139" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>797386</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="140">
@@ -3084,10 +3084,10 @@
         <v>107</v>
       </c>
       <c r="C140" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D140" t="n">
-        <v>1699276</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="141">
@@ -3157,99 +3157,99 @@
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>7029507</v>
+        <v>372065</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C146" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D146" t="n">
-        <v>7679834</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C147" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D147" t="n">
-        <v>13157529</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B148" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C148" t="n">
         <v>2016</v>
       </c>
       <c r="D148" t="n">
-        <v>1196900</v>
+        <v>36993</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C149" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>1159392</v>
+        <v>1196900</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B150" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C150" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D150" t="n">
-        <v>1439218</v>
+        <v>1159392</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B151" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C151" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D151" t="n">
-        <v>372065</v>
+        <v>1439218</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B152" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C152" t="n">
         <v>2016</v>
@@ -3260,30 +3260,30 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B153" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>39783</v>
+        <v>3802773</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C154" t="n">
         <v>2017</v>
       </c>
       <c r="D154" t="n">
-        <v>39783</v>
+        <v>171825</v>
       </c>
     </row>
     <row r="155">
@@ -3294,24 +3294,24 @@
         <v>121</v>
       </c>
       <c r="C155" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D155" t="n">
-        <v>39783</v>
+        <v>3390872</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B156" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C156" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D156" t="n">
-        <v>39783</v>
+        <v>20119196</v>
       </c>
     </row>
     <row r="157">
@@ -3322,10 +3322,10 @@
         <v>123</v>
       </c>
       <c r="C157" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D157" t="n">
-        <v>2692992</v>
+        <v>13729517</v>
       </c>
     </row>
     <row r="158">
@@ -3336,24 +3336,24 @@
         <v>123</v>
       </c>
       <c r="C158" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D158" t="n">
-        <v>2600843</v>
+        <v>6295683</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C159" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>2119570</v>
+        <v>7029507</v>
       </c>
     </row>
     <row r="160">
@@ -3364,24 +3364,24 @@
         <v>125</v>
       </c>
       <c r="C160" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D160" t="n">
-        <v>36993</v>
+        <v>7679834</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B161" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C161" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D161" t="n">
-        <v>39783</v>
+        <v>13157529</v>
       </c>
     </row>
     <row r="162">
@@ -3392,24 +3392,24 @@
         <v>127</v>
       </c>
       <c r="C162" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D162" t="n">
-        <v>39783</v>
+        <v>55825</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C163" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D163" t="n">
-        <v>20119196</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="164">
@@ -3420,10 +3420,10 @@
         <v>129</v>
       </c>
       <c r="C164" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D164" t="n">
-        <v>13729517</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="165">
@@ -3434,10 +3434,10 @@
         <v>129</v>
       </c>
       <c r="C165" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D165" t="n">
-        <v>6295683</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="166">
@@ -3451,7 +3451,7 @@
         <v>2016</v>
       </c>
       <c r="D166" t="n">
-        <v>55825</v>
+        <v>2588709</v>
       </c>
     </row>
     <row r="167">
@@ -3465,91 +3465,91 @@
         <v>2017</v>
       </c>
       <c r="D167" t="n">
-        <v>39783</v>
+        <v>3450428</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C168" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D168" t="n">
-        <v>2813450</v>
+        <v>4914745</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B169" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C169" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D169" t="n">
-        <v>1556244</v>
+        <v>262837</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B170" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C170" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D170" t="n">
-        <v>3112488</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
       <c r="D171" t="n">
-        <v>15480012</v>
+        <v>7347741</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C172" t="n">
         <v>2017</v>
       </c>
       <c r="D172" t="n">
-        <v>12050480</v>
+        <v>3608729</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B173" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C173" t="n">
         <v>2018</v>
       </c>
       <c r="D173" t="n">
-        <v>23334116</v>
+        <v>5276861</v>
       </c>
     </row>
     <row r="174">
@@ -3560,38 +3560,38 @@
         <v>135</v>
       </c>
       <c r="C174" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D174" t="n">
-        <v>2235460</v>
+        <v>2813450</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B175" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C175" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D175" t="n">
-        <v>7347741</v>
+        <v>1556244</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B176" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C176" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D176" t="n">
-        <v>3608729</v>
+        <v>3112488</v>
       </c>
     </row>
     <row r="177">
@@ -3602,52 +3602,52 @@
         <v>137</v>
       </c>
       <c r="C177" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>5276861</v>
+        <v>15480012</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C178" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D178" t="n">
-        <v>2588709</v>
+        <v>12050480</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C179" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D179" t="n">
-        <v>3450428</v>
+        <v>23334116</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C180" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D180" t="n">
-        <v>4914745</v>
+        <v>2235460</v>
       </c>
     </row>
     <row r="181">
@@ -3658,24 +3658,24 @@
         <v>139</v>
       </c>
       <c r="C181" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>262837</v>
+        <v>512047</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B182" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C182" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D182" t="n">
-        <v>192617</v>
+        <v>19949074</v>
       </c>
     </row>
     <row r="183">
@@ -3686,10 +3686,10 @@
         <v>141</v>
       </c>
       <c r="C183" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D183" t="n">
-        <v>39783</v>
+        <v>13037136</v>
       </c>
     </row>
     <row r="184">
@@ -3700,38 +3700,38 @@
         <v>141</v>
       </c>
       <c r="C184" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D184" t="n">
-        <v>39783</v>
+        <v>5870830</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B185" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C185" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D185" t="n">
-        <v>335383</v>
+        <v>263468</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B186" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C186" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D186" t="n">
-        <v>299457</v>
+        <v>193079</v>
       </c>
     </row>
     <row r="187">
@@ -3742,38 +3742,38 @@
         <v>143</v>
       </c>
       <c r="C187" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>432369</v>
+        <v>908311</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B188" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C188" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D188" t="n">
-        <v>12484692</v>
+        <v>946983</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B189" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C189" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D189" t="n">
-        <v>11841157</v>
+        <v>9121708</v>
       </c>
     </row>
     <row r="190">
@@ -3784,66 +3784,66 @@
         <v>145</v>
       </c>
       <c r="C190" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D190" t="n">
-        <v>10111248</v>
+        <v>335383</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B191" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C191" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D191" t="n">
-        <v>39783</v>
+        <v>299457</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B192" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C192" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D192" t="n">
-        <v>39783</v>
+        <v>432369</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B193" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>7912361</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B194" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C194" t="n">
         <v>2017</v>
       </c>
       <c r="D194" t="n">
-        <v>7536098</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="195">
@@ -3854,10 +3854,10 @@
         <v>149</v>
       </c>
       <c r="C195" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>6571853</v>
+        <v>12484692</v>
       </c>
     </row>
     <row r="196">
@@ -3868,10 +3868,10 @@
         <v>149</v>
       </c>
       <c r="C196" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D196" t="n">
-        <v>262837</v>
+        <v>11841157</v>
       </c>
     </row>
     <row r="197">
@@ -3882,10 +3882,10 @@
         <v>149</v>
       </c>
       <c r="C197" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D197" t="n">
-        <v>192617</v>
+        <v>10111248</v>
       </c>
     </row>
     <row r="198">
@@ -3899,7 +3899,7 @@
         <v>2016</v>
       </c>
       <c r="D198" t="n">
-        <v>19949074</v>
+        <v>7912361</v>
       </c>
     </row>
     <row r="199">
@@ -3913,7 +3913,7 @@
         <v>2017</v>
       </c>
       <c r="D199" t="n">
-        <v>13037136</v>
+        <v>7536098</v>
       </c>
     </row>
     <row r="200">
@@ -3927,7 +3927,7 @@
         <v>2018</v>
       </c>
       <c r="D200" t="n">
-        <v>5870830</v>
+        <v>6571853</v>
       </c>
     </row>
     <row r="201">
@@ -3941,7 +3941,7 @@
         <v>2019</v>
       </c>
       <c r="D201" t="n">
-        <v>263468</v>
+        <v>262837</v>
       </c>
     </row>
     <row r="202">
@@ -3955,7 +3955,7 @@
         <v>2020</v>
       </c>
       <c r="D202" t="n">
-        <v>193079</v>
+        <v>192617</v>
       </c>
     </row>
     <row r="203">
@@ -3969,7 +3969,7 @@
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>908311</v>
+        <v>2023476</v>
       </c>
     </row>
     <row r="204">
@@ -3983,7 +3983,7 @@
         <v>2017</v>
       </c>
       <c r="D204" t="n">
-        <v>946983</v>
+        <v>1724484</v>
       </c>
     </row>
     <row r="205">
@@ -3997,7 +3997,7 @@
         <v>2018</v>
       </c>
       <c r="D205" t="n">
-        <v>9121708</v>
+        <v>1118581</v>
       </c>
     </row>
     <row r="206">
@@ -4011,7 +4011,7 @@
         <v>2016</v>
       </c>
       <c r="D206" t="n">
-        <v>2023476</v>
+        <v>550996</v>
       </c>
     </row>
     <row r="207">
@@ -4025,21 +4025,21 @@
         <v>2017</v>
       </c>
       <c r="D207" t="n">
-        <v>1724484</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B208" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C208" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D208" t="n">
-        <v>1118581</v>
+        <v>1299112</v>
       </c>
     </row>
     <row r="209">
@@ -4050,7 +4050,7 @@
         <v>157</v>
       </c>
       <c r="C209" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D209" t="n">
         <v>39783</v>
@@ -4058,16 +4058,16 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B210" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C210" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D210" t="n">
-        <v>39783</v>
+        <v>1049740</v>
       </c>
     </row>
     <row r="211">
@@ -4078,7 +4078,7 @@
         <v>159</v>
       </c>
       <c r="C211" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D211" t="n">
         <v>39783</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B212" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C212" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D212" t="n">
         <v>39783</v>
@@ -4106,10 +4106,10 @@
         <v>161</v>
       </c>
       <c r="C213" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D213" t="n">
-        <v>5220023</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="214">
@@ -4123,7 +4123,7 @@
         <v>2016</v>
       </c>
       <c r="D214" t="n">
-        <v>282055</v>
+        <v>57491472</v>
       </c>
     </row>
     <row r="215">
@@ -4137,21 +4137,21 @@
         <v>2017</v>
       </c>
       <c r="D215" t="n">
-        <v>147069</v>
+        <v>21292105</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B216" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C216" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D216" t="n">
-        <v>57491472</v>
+        <v>41687779</v>
       </c>
     </row>
     <row r="217">
@@ -4162,10 +4162,10 @@
         <v>165</v>
       </c>
       <c r="C217" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>21292105</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="218">
@@ -4176,10 +4176,10 @@
         <v>165</v>
       </c>
       <c r="C218" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D218" t="n">
-        <v>41687779</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="219">
@@ -4193,21 +4193,21 @@
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>6713838</v>
+        <v>282055</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B220" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C220" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D220" t="n">
-        <v>61008</v>
+        <v>147069</v>
       </c>
     </row>
     <row r="221">
@@ -4218,10 +4218,10 @@
         <v>169</v>
       </c>
       <c r="C221" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>43958</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="222">
@@ -4232,10 +4232,10 @@
         <v>169</v>
       </c>
       <c r="C222" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D222" t="n">
-        <v>43828</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="223">
@@ -4249,105 +4249,105 @@
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>37591381</v>
+        <v>6713838</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B224" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C224" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D224" t="n">
-        <v>20388107</v>
+        <v>891097</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B225" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C225" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D225" t="n">
-        <v>21530317</v>
+        <v>738103</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B226" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C226" t="n">
         <v>2016</v>
       </c>
       <c r="D226" t="n">
-        <v>457537</v>
+        <v>37591381</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B227" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C227" t="n">
         <v>2017</v>
       </c>
       <c r="D227" t="n">
-        <v>286163</v>
+        <v>20388107</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B228" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C228" t="n">
         <v>2018</v>
       </c>
       <c r="D228" t="n">
-        <v>359874</v>
+        <v>21530317</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B229" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C229" t="n">
         <v>2016</v>
       </c>
       <c r="D229" t="n">
-        <v>39783</v>
+        <v>3642339</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B230" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C230" t="n">
         <v>2017</v>
       </c>
       <c r="D230" t="n">
-        <v>39783</v>
+        <v>2440853</v>
       </c>
     </row>
     <row r="231">
@@ -4358,10 +4358,10 @@
         <v>177</v>
       </c>
       <c r="C231" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D231" t="n">
-        <v>2239080</v>
+        <v>704516</v>
       </c>
     </row>
     <row r="232">
@@ -4375,7 +4375,7 @@
         <v>2016</v>
       </c>
       <c r="D232" t="n">
-        <v>39014</v>
+        <v>5220023</v>
       </c>
     </row>
     <row r="233">
@@ -4386,38 +4386,38 @@
         <v>181</v>
       </c>
       <c r="C233" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D233" t="n">
-        <v>223412</v>
+        <v>61008</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B234" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C234" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D234" t="n">
-        <v>568908</v>
+        <v>43958</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B235" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C235" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D235" t="n">
-        <v>489845</v>
+        <v>43828</v>
       </c>
     </row>
     <row r="236">
@@ -4428,21 +4428,21 @@
         <v>183</v>
       </c>
       <c r="C236" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D236" t="n">
-        <v>628271</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B237" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C237" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D237" t="n">
         <v>39783</v>
@@ -4456,10 +4456,10 @@
         <v>185</v>
       </c>
       <c r="C238" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D238" t="n">
-        <v>39783</v>
+        <v>223412</v>
       </c>
     </row>
     <row r="239">
@@ -4473,7 +4473,7 @@
         <v>2016</v>
       </c>
       <c r="D239" t="n">
-        <v>174135</v>
+        <v>35649951</v>
       </c>
     </row>
     <row r="240">
@@ -4487,21 +4487,21 @@
         <v>2017</v>
       </c>
       <c r="D240" t="n">
-        <v>213734</v>
+        <v>18071968</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B241" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C241" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D241" t="n">
-        <v>39783</v>
+        <v>22436370</v>
       </c>
     </row>
     <row r="242">
@@ -4512,10 +4512,10 @@
         <v>189</v>
       </c>
       <c r="C242" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D242" t="n">
-        <v>39783</v>
+        <v>39014</v>
       </c>
     </row>
     <row r="243">
@@ -4529,7 +4529,7 @@
         <v>2016</v>
       </c>
       <c r="D243" t="n">
-        <v>35649951</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="244">
@@ -4543,21 +4543,21 @@
         <v>2017</v>
       </c>
       <c r="D244" t="n">
-        <v>18071968</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B245" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C245" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D245" t="n">
-        <v>22436370</v>
+        <v>174135</v>
       </c>
     </row>
     <row r="246">
@@ -4568,186 +4568,186 @@
         <v>193</v>
       </c>
       <c r="C246" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D246" t="n">
-        <v>17641081</v>
+        <v>213734</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B247" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C247" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D247" t="n">
-        <v>19696866</v>
+        <v>568908</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B248" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C248" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D248" t="n">
-        <v>26425145</v>
+        <v>489845</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B249" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C249" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D249" t="n">
-        <v>1694328</v>
+        <v>628271</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B250" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C250" t="n">
         <v>2016</v>
       </c>
       <c r="D250" t="n">
-        <v>2371842</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B251" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C251" t="n">
         <v>2017</v>
       </c>
       <c r="D251" t="n">
-        <v>1080614</v>
+        <v>39783</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B252" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C252" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D252" t="n">
-        <v>952892</v>
+        <v>2371842</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B253" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C253" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D253" t="n">
-        <v>1049740</v>
+        <v>1080614</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B254" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C254" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D254" t="n">
-        <v>39783</v>
+        <v>952892</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B255" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C255" t="n">
         <v>2016</v>
       </c>
       <c r="D255" t="n">
-        <v>12373103</v>
+        <v>17641081</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B256" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C256" t="n">
         <v>2017</v>
       </c>
       <c r="D256" t="n">
-        <v>10718378</v>
+        <v>19696866</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B257" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C257" t="n">
         <v>2018</v>
       </c>
       <c r="D257" t="n">
-        <v>19359679</v>
+        <v>26425145</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B258" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C258" t="n">
         <v>2019</v>
       </c>
       <c r="D258" t="n">
-        <v>2713740</v>
+        <v>1694328</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B259" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C259" t="n">
         <v>2016</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B260" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C260" t="n">
         <v>2017</v>
@@ -4772,30 +4772,30 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B261" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C261" t="n">
         <v>2016</v>
       </c>
       <c r="D261" t="n">
-        <v>39783</v>
+        <v>12373103</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B262" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C262" t="n">
         <v>2017</v>
       </c>
       <c r="D262" t="n">
-        <v>39783</v>
+        <v>10718378</v>
       </c>
     </row>
     <row r="263">
@@ -4806,24 +4806,24 @@
         <v>205</v>
       </c>
       <c r="C263" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D263" t="n">
-        <v>1279492</v>
+        <v>19359679</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B264" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C264" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D264" t="n">
-        <v>891097</v>
+        <v>2713740</v>
       </c>
     </row>
     <row r="265">
@@ -4834,10 +4834,10 @@
         <v>207</v>
       </c>
       <c r="C265" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D265" t="n">
-        <v>738103</v>
+        <v>1279492</v>
       </c>
     </row>
     <row r="266">
@@ -4915,18 +4915,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>214</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>215</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4934,49 +4937,58 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>58155308</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>17495985</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>16949965</v>
       </c>
-      <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>39783</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>39783</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>39783</v>
+      </c>
       <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
         <v>13717137</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>14220413</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>6349653</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>262837</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>192617</v>
       </c>
     </row>
@@ -4984,1527 +4996,1830 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>14682868</v>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>12045916</v>
+        <v>1548485</v>
       </c>
       <c r="D5" t="n">
-        <v>18343700</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1117722</v>
-      </c>
+        <v>39783</v>
+      </c>
+      <c r="E5"/>
       <c r="F5"/>
+      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>635055</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>349024</v>
+        <v>4570749</v>
       </c>
       <c r="D6" t="n">
-        <v>201004</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>4092491</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5010591</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1492800</v>
+      </c>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>4570749</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>4092491</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5010591</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1492800</v>
-      </c>
+        <v>35925</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
       <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
         <v>5086260</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>7426683</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>3635166</v>
       </c>
-      <c r="E8"/>
       <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
         <v>13200</v>
       </c>
-      <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
+      <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>35925</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14682868</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12045916</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18343700</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1117722</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>1548485</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>635055</v>
+      </c>
+      <c r="D11" t="n">
+        <v>349024</v>
+      </c>
+      <c r="E11" t="n">
+        <v>201004</v>
+      </c>
       <c r="F11"/>
+      <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>11921731</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2523437</v>
+        <v>2421393</v>
       </c>
       <c r="D12" t="n">
-        <v>2374116</v>
-      </c>
-      <c r="E12"/>
+        <v>2588096</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3220443</v>
+      </c>
       <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>5599074</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>962168</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1018290</v>
+      </c>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>2421393</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>2588096</v>
+        <v>2482953</v>
       </c>
       <c r="D14" t="n">
-        <v>3220443</v>
-      </c>
-      <c r="E14"/>
+        <v>919416</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1671349</v>
+      </c>
       <c r="F14"/>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>564020</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>1058936</v>
+        <v>5599074</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>2482953</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>919416</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1671349</v>
-      </c>
+        <v>2239080</v>
+      </c>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>24908289</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>8073879</v>
+        <v>564020</v>
       </c>
       <c r="D17" t="n">
-        <v>17704982</v>
+        <v>1058936</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>254478</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>263655</v>
+        <v>24908289</v>
       </c>
       <c r="D18" t="n">
-        <v>357171</v>
-      </c>
-      <c r="E18"/>
+        <v>8073879</v>
+      </c>
+      <c r="E18" t="n">
+        <v>17704982</v>
+      </c>
       <c r="F18"/>
+      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>798549</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>664015</v>
+        <v>254478</v>
       </c>
       <c r="D19" t="n">
-        <v>377505</v>
-      </c>
-      <c r="E19"/>
+        <v>263655</v>
+      </c>
+      <c r="E19" t="n">
+        <v>357171</v>
+      </c>
       <c r="F19"/>
+      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>560874</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>798549</v>
+      </c>
+      <c r="D20" t="n">
+        <v>664015</v>
+      </c>
+      <c r="E20" t="n">
+        <v>377505</v>
+      </c>
       <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>1049740</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>39783</v>
+        <v>560874</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
+      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>863575</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>756348</v>
+        <v>1049740</v>
       </c>
       <c r="D22" t="n">
-        <v>492624</v>
+        <v>39783</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
+      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>219169</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>177298</v>
+        <v>863575</v>
       </c>
       <c r="D23" t="n">
-        <v>176775</v>
-      </c>
-      <c r="E23"/>
+        <v>756348</v>
+      </c>
+      <c r="E23" t="n">
+        <v>492624</v>
+      </c>
       <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>2438895</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>3442524</v>
+        <v>11921731</v>
       </c>
       <c r="D24" t="n">
-        <v>2467873</v>
-      </c>
-      <c r="E24"/>
+        <v>2523437</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2374116</v>
+      </c>
       <c r="F24"/>
+      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>63707831</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>49110085</v>
+        <v>219169</v>
       </c>
       <c r="D25" t="n">
-        <v>89727354</v>
+        <v>177298</v>
       </c>
       <c r="E25" t="n">
-        <v>28475160</v>
+        <v>176775</v>
       </c>
       <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>925054</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26"/>
+        <v>2438895</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3442524</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2467873</v>
+      </c>
       <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>31737163</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>27510203</v>
+        <v>457537</v>
       </c>
       <c r="D27" t="n">
-        <v>18204211</v>
+        <v>286163</v>
       </c>
       <c r="E27" t="n">
-        <v>1117722</v>
+        <v>359874</v>
       </c>
       <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>40566</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>63707831</v>
+      </c>
+      <c r="D28" t="n">
+        <v>49110085</v>
+      </c>
+      <c r="E28" t="n">
+        <v>89727354</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28475160</v>
+      </c>
+      <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>1341784</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>1742064</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3528294</v>
-      </c>
-      <c r="E29" t="n">
-        <v>958047</v>
-      </c>
+        <v>40566</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
       <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>4586662</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>1620744</v>
+        <v>31737163</v>
       </c>
       <c r="D30" t="n">
-        <v>1262977</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>27510203</v>
+      </c>
+      <c r="E30" t="n">
+        <v>18204211</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1117722</v>
+      </c>
+      <c r="G30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>2175800</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>197300</v>
+        <v>925054</v>
       </c>
       <c r="D31" t="n">
-        <v>157052</v>
+        <v>39783</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>13405617</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>9831287</v>
+        <v>4586662</v>
       </c>
       <c r="D32" t="n">
-        <v>14118032</v>
+        <v>1620744</v>
       </c>
       <c r="E32" t="n">
-        <v>4105200</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2425800</v>
-      </c>
+        <v>1262977</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>31169353</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>9642922</v>
+        <v>1341784</v>
       </c>
       <c r="D33" t="n">
-        <v>11430177</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>1742064</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3528294</v>
+      </c>
+      <c r="F33" t="n">
+        <v>958047</v>
+      </c>
+      <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>17757195</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>19345816</v>
+        <v>2175800</v>
       </c>
       <c r="D34" t="n">
-        <v>25154958</v>
+        <v>197300</v>
       </c>
       <c r="E34" t="n">
-        <v>2293131</v>
-      </c>
-      <c r="F34" t="n">
-        <v>192617</v>
-      </c>
+        <v>157052</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>2222582</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>2977997</v>
+        <v>31169353</v>
       </c>
       <c r="D35" t="n">
-        <v>3985649</v>
+        <v>9642922</v>
       </c>
       <c r="E35" t="n">
-        <v>262837</v>
-      </c>
-      <c r="F35" t="n">
-        <v>192617</v>
-      </c>
+        <v>11430177</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>2874982</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>4901734</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>13405617</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9831287</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14118032</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4105200</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2425800</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>8986326</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>1001527</v>
+        <v>2222582</v>
       </c>
       <c r="D37" t="n">
-        <v>2375541</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>2977997</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3985649</v>
+      </c>
+      <c r="F37" t="n">
+        <v>262837</v>
+      </c>
+      <c r="G37" t="n">
+        <v>192617</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>9281116</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>5642242</v>
+        <v>17757195</v>
       </c>
       <c r="D38" t="n">
-        <v>5066367</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>19345816</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25154958</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2293131</v>
+      </c>
+      <c r="G38" t="n">
+        <v>192617</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>15737719</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>11599217</v>
+        <v>2874982</v>
       </c>
       <c r="D39" t="n">
-        <v>13150132</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2761680</v>
-      </c>
+        <v>4901734</v>
+      </c>
+      <c r="E39"/>
       <c r="F39"/>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40"/>
-      <c r="C40"/>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>8986326</v>
+      </c>
       <c r="D40" t="n">
-        <v>139632</v>
-      </c>
-      <c r="E40"/>
+        <v>1001527</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2375541</v>
+      </c>
       <c r="F40"/>
+      <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>962168</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>1018290</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41"/>
+        <v>9281116</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5642242</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5066367</v>
+      </c>
       <c r="F41"/>
+      <c r="G41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>39783</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
+        <v>15737719</v>
+      </c>
+      <c r="D42" t="n">
+        <v>11599217</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13150132</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2761680</v>
+      </c>
+      <c r="G42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>550996</v>
+      <c r="B43" t="s">
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>39783</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="n">
+        <v>39783</v>
+      </c>
       <c r="E43"/>
       <c r="F43"/>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>512047</v>
+      <c r="B44" t="s">
+        <v>89</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
-      <c r="E44"/>
+      <c r="E44" t="n">
+        <v>139632</v>
+      </c>
       <c r="F44"/>
+      <c r="G44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
         <v>187221</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>127840</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>257106</v>
       </c>
-      <c r="E45"/>
       <c r="F45"/>
+      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
         <v>559800</v>
       </c>
-      <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
+      <c r="G46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>1299112</v>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
         <v>39783</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="n">
+        <v>39783</v>
+      </c>
       <c r="E47"/>
       <c r="F47"/>
+      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>3642339</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2440853</v>
-      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48"/>
       <c r="D48" t="n">
-        <v>704516</v>
+        <v>256760</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49"/>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
-        <v>256760</v>
+        <v>256023</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>39783</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
+        <v>916257</v>
+      </c>
+      <c r="D50" t="n">
+        <v>797386</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1699276</v>
+      </c>
       <c r="F50"/>
+      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>256023</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2692992</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2600843</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2119570</v>
+      </c>
       <c r="F51"/>
+      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>3802773</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>171825</v>
+        <v>39783</v>
       </c>
       <c r="D52" t="n">
-        <v>3390872</v>
+        <v>39783</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>916257</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>797386</v>
+        <v>39783</v>
       </c>
       <c r="D53" t="n">
-        <v>1699276</v>
+        <v>39783</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
         <v>42578310</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>50217489</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>73187502</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>1134528</v>
       </c>
-      <c r="F54"/>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>7029507</v>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>7679834</v>
-      </c>
-      <c r="D55" t="n">
-        <v>13157529</v>
-      </c>
+        <v>372065</v>
+      </c>
+      <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
+      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>1196900</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>1159392</v>
+        <v>39783</v>
       </c>
       <c r="D56" t="n">
-        <v>1439218</v>
+        <v>39783</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>372065</v>
-      </c>
-      <c r="C57"/>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>36993</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
+      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>511213</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1196900</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1159392</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1439218</v>
+      </c>
       <c r="F58"/>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>39783</v>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>39783</v>
+        <v>511213</v>
       </c>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
+      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>39783</v>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60"/>
+        <v>3802773</v>
+      </c>
+      <c r="D60" t="n">
+        <v>171825</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3390872</v>
+      </c>
       <c r="F60"/>
+      <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>2692992</v>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>2600843</v>
+        <v>20119196</v>
       </c>
       <c r="D61" t="n">
-        <v>2119570</v>
-      </c>
-      <c r="E61"/>
+        <v>13729517</v>
+      </c>
+      <c r="E61" t="n">
+        <v>6295683</v>
+      </c>
       <c r="F61"/>
+      <c r="G61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>36993</v>
-      </c>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7029507</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7679834</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13157529</v>
+      </c>
       <c r="F62"/>
+      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>39783</v>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D63"/>
+        <v>55825</v>
+      </c>
+      <c r="D63" t="n">
+        <v>39783</v>
+      </c>
       <c r="E63"/>
       <c r="F63"/>
+      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>20119196</v>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>13729517</v>
+        <v>39783</v>
       </c>
       <c r="D64" t="n">
-        <v>6295683</v>
+        <v>39783</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
+      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>55825</v>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
+        <v>2588709</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3450428</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4914745</v>
+      </c>
+      <c r="F65" t="n">
+        <v>262837</v>
+      </c>
+      <c r="G65" t="n">
+        <v>192617</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>2813450</v>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>1556244</v>
+        <v>7347741</v>
       </c>
       <c r="D66" t="n">
-        <v>3112488</v>
-      </c>
-      <c r="E66"/>
+        <v>3608729</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5276861</v>
+      </c>
       <c r="F66"/>
+      <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>15480012</v>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>12050480</v>
+        <v>2813450</v>
       </c>
       <c r="D67" t="n">
-        <v>23334116</v>
+        <v>1556244</v>
       </c>
       <c r="E67" t="n">
-        <v>2235460</v>
+        <v>3112488</v>
       </c>
       <c r="F67"/>
+      <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>7347741</v>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>3608729</v>
+        <v>15480012</v>
       </c>
       <c r="D68" t="n">
-        <v>5276861</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68"/>
+        <v>12050480</v>
+      </c>
+      <c r="E68" t="n">
+        <v>23334116</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2235460</v>
+      </c>
+      <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>2588709</v>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>3450428</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4914745</v>
-      </c>
-      <c r="E69" t="n">
-        <v>262837</v>
-      </c>
-      <c r="F69" t="n">
-        <v>192617</v>
-      </c>
+        <v>512047</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>39783</v>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
+        <v>19949074</v>
+      </c>
+      <c r="D70" t="n">
+        <v>13037136</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5870830</v>
+      </c>
+      <c r="F70" t="n">
+        <v>263468</v>
+      </c>
+      <c r="G70" t="n">
+        <v>193079</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>335383</v>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>299457</v>
+        <v>908311</v>
       </c>
       <c r="D71" t="n">
-        <v>432369</v>
-      </c>
-      <c r="E71"/>
+        <v>946983</v>
+      </c>
+      <c r="E71" t="n">
+        <v>9121708</v>
+      </c>
       <c r="F71"/>
+      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>12484692</v>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>11841157</v>
+        <v>335383</v>
       </c>
       <c r="D72" t="n">
-        <v>10111248</v>
-      </c>
-      <c r="E72"/>
+        <v>299457</v>
+      </c>
+      <c r="E72" t="n">
+        <v>432369</v>
+      </c>
       <c r="F72"/>
+      <c r="G72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>39783</v>
+      <c r="B73" t="s">
+        <v>147</v>
       </c>
       <c r="C73" t="n">
         <v>39783</v>
       </c>
-      <c r="D73"/>
+      <c r="D73" t="n">
+        <v>39783</v>
+      </c>
       <c r="E73"/>
       <c r="F73"/>
+      <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>7912361</v>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>7536098</v>
+        <v>12484692</v>
       </c>
       <c r="D74" t="n">
-        <v>6571853</v>
+        <v>11841157</v>
       </c>
       <c r="E74" t="n">
-        <v>262837</v>
-      </c>
-      <c r="F74" t="n">
-        <v>192617</v>
-      </c>
+        <v>10111248</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>19949074</v>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>13037136</v>
+        <v>7912361</v>
       </c>
       <c r="D75" t="n">
-        <v>5870830</v>
+        <v>7536098</v>
       </c>
       <c r="E75" t="n">
-        <v>263468</v>
+        <v>6571853</v>
       </c>
       <c r="F75" t="n">
-        <v>193079</v>
+        <v>262837</v>
+      </c>
+      <c r="G75" t="n">
+        <v>192617</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>908311</v>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>946983</v>
+        <v>2023476</v>
       </c>
       <c r="D76" t="n">
-        <v>9121708</v>
-      </c>
-      <c r="E76"/>
+        <v>1724484</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1118581</v>
+      </c>
       <c r="F76"/>
+      <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>2023476</v>
+      <c r="B77" t="s">
+        <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>1724484</v>
+        <v>550996</v>
       </c>
       <c r="D77" t="n">
-        <v>1118581</v>
+        <v>39783</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
+      <c r="G77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>39783</v>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D78"/>
+        <v>1299112</v>
+      </c>
+      <c r="D78" t="n">
+        <v>39783</v>
+      </c>
       <c r="E78"/>
       <c r="F78"/>
+      <c r="G78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>39783</v>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D79"/>
+        <v>1049740</v>
+      </c>
+      <c r="D79" t="n">
+        <v>39783</v>
+      </c>
       <c r="E79"/>
       <c r="F79"/>
+      <c r="G79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>5220023</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80"/>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>39783</v>
+      </c>
+      <c r="D80" t="n">
+        <v>39783</v>
+      </c>
       <c r="E80"/>
       <c r="F80"/>
+      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>282055</v>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>147069</v>
-      </c>
-      <c r="D81"/>
-      <c r="E81"/>
+        <v>57491472</v>
+      </c>
+      <c r="D81" t="n">
+        <v>21292105</v>
+      </c>
+      <c r="E81" t="n">
+        <v>41687779</v>
+      </c>
       <c r="F81"/>
+      <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>57491472</v>
+      <c r="B82" t="s">
+        <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v>21292105</v>
+        <v>39783</v>
       </c>
       <c r="D82" t="n">
-        <v>41687779</v>
+        <v>39783</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
+      <c r="G82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>6713838</v>
-      </c>
-      <c r="C83"/>
-      <c r="D83"/>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>282055</v>
+      </c>
+      <c r="D83" t="n">
+        <v>147069</v>
+      </c>
       <c r="E83"/>
       <c r="F83"/>
+      <c r="G83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>61008</v>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v>43958</v>
+        <v>39783</v>
       </c>
       <c r="D84" t="n">
-        <v>43828</v>
+        <v>39783</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
+      <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>37591381</v>
+      <c r="B85" t="s">
+        <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v>20388107</v>
-      </c>
-      <c r="D85" t="n">
-        <v>21530317</v>
-      </c>
+        <v>6713838</v>
+      </c>
+      <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
+      <c r="G85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>457537</v>
+      <c r="B86" t="s">
+        <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>286163</v>
+        <v>891097</v>
       </c>
       <c r="D86" t="n">
-        <v>359874</v>
+        <v>738103</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
+      <c r="G86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>39783</v>
+      <c r="B87" t="s">
+        <v>175</v>
       </c>
       <c r="C87" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D87"/>
-      <c r="E87"/>
+        <v>37591381</v>
+      </c>
+      <c r="D87" t="n">
+        <v>20388107</v>
+      </c>
+      <c r="E87" t="n">
+        <v>21530317</v>
+      </c>
       <c r="F87"/>
+      <c r="G87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>2239080</v>
-      </c>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3642339</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2440853</v>
+      </c>
+      <c r="E88" t="n">
+        <v>704516</v>
+      </c>
       <c r="F88"/>
+      <c r="G88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>39014</v>
-      </c>
-      <c r="C89"/>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5220023</v>
+      </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
+      <c r="G89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90"/>
-      <c r="C90"/>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>61008</v>
+      </c>
       <c r="D90" t="n">
-        <v>223412</v>
-      </c>
-      <c r="E90"/>
+        <v>43958</v>
+      </c>
+      <c r="E90" t="n">
+        <v>43828</v>
+      </c>
       <c r="F90"/>
+      <c r="G90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>568908</v>
+      <c r="B91" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>489845</v>
+        <v>39783</v>
       </c>
       <c r="D91" t="n">
-        <v>628271</v>
+        <v>39783</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
+      <c r="G91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>39783</v>
-      </c>
-      <c r="C92" t="n">
-        <v>39783</v>
-      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92"/>
       <c r="D92"/>
-      <c r="E92"/>
+      <c r="E92" t="n">
+        <v>223412</v>
+      </c>
       <c r="F92"/>
+      <c r="G92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>174135</v>
+      <c r="B93" t="s">
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>213734</v>
-      </c>
-      <c r="D93"/>
-      <c r="E93"/>
+        <v>35649951</v>
+      </c>
+      <c r="D93" t="n">
+        <v>18071968</v>
+      </c>
+      <c r="E93" t="n">
+        <v>22436370</v>
+      </c>
       <c r="F93"/>
+      <c r="G93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>39783</v>
+      <c r="B94" t="s">
+        <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v>39783</v>
+        <v>39014</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94"/>
+      <c r="G94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>35649951</v>
+      <c r="B95" t="s">
+        <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>18071968</v>
+        <v>39783</v>
       </c>
       <c r="D95" t="n">
-        <v>22436370</v>
+        <v>39783</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
+      <c r="G95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>17641081</v>
+      <c r="B96" t="s">
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>19696866</v>
+        <v>174135</v>
       </c>
       <c r="D96" t="n">
-        <v>26425145</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1694328</v>
-      </c>
+        <v>213734</v>
+      </c>
+      <c r="E96"/>
       <c r="F96"/>
+      <c r="G96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>2371842</v>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>1080614</v>
+        <v>568908</v>
       </c>
       <c r="D97" t="n">
-        <v>952892</v>
-      </c>
-      <c r="E97"/>
+        <v>489845</v>
+      </c>
+      <c r="E97" t="n">
+        <v>628271</v>
+      </c>
       <c r="F97"/>
+      <c r="G97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>1049740</v>
+      <c r="B98" t="s">
+        <v>197</v>
       </c>
       <c r="C98" t="n">
         <v>39783</v>
       </c>
-      <c r="D98"/>
+      <c r="D98" t="n">
+        <v>39783</v>
+      </c>
       <c r="E98"/>
       <c r="F98"/>
+      <c r="G98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>12373103</v>
+      <c r="B99" t="s">
+        <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v>10718378</v>
+        <v>2371842</v>
       </c>
       <c r="D99" t="n">
-        <v>19359679</v>
+        <v>1080614</v>
       </c>
       <c r="E99" t="n">
-        <v>2713740</v>
+        <v>952892</v>
       </c>
       <c r="F99"/>
+      <c r="G99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>39783</v>
+      <c r="B100" t="s">
+        <v>201</v>
       </c>
       <c r="C100" t="n">
-        <v>39783</v>
-      </c>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
+        <v>17641081</v>
+      </c>
+      <c r="D100" t="n">
+        <v>19696866</v>
+      </c>
+      <c r="E100" t="n">
+        <v>26425145</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1694328</v>
+      </c>
+      <c r="G100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>39783</v>
+      <c r="B101" t="s">
+        <v>203</v>
       </c>
       <c r="C101" t="n">
         <v>39783</v>
       </c>
-      <c r="D101"/>
+      <c r="D101" t="n">
+        <v>39783</v>
+      </c>
       <c r="E101"/>
       <c r="F101"/>
+      <c r="G101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>1279492</v>
-      </c>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12373103</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10718378</v>
+      </c>
+      <c r="E102" t="n">
+        <v>19359679</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2713740</v>
+      </c>
+      <c r="G102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>891097</v>
+      <c r="B103" t="s">
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>738103</v>
+        <v>1279492</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103"/>
+      <c r="G103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
         <v>1329613</v>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>1063139</v>
       </c>
-      <c r="D104" t="n">
+      <c r="E104" t="n">
         <v>400323</v>
       </c>
-      <c r="E104"/>
       <c r="F104"/>
+      <c r="G104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
         <v>9516</v>
       </c>
-      <c r="C105"/>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105"/>
+      <c r="G105"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
+++ b/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -88,52 +88,52 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">CU</t>
@@ -670,13 +670,19 @@
     <t xml:space="preserve">Name: iati-budgets-ca</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The data shows forward looking budget data reported to the International Aid Transparency Initiative (IATI) by Canada for existing or committed projects spanning multiple years. Budget data is displayed for Global Affairs Canada only. This visualisation shows only project financing for specific countries: Regional and unspecified funding is excluded.</t>
+    <t xml:space="preserve">Description: Canada Global Affairs forward-looking budgets for each country based on activities reported through IATI.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Development Initaitives based on Canada Global Affairs data downloaded via the IATI Registry on 15 December 2016.</t>
+    <t xml:space="preserve">Source: 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -685,25 +691,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1056,63 +1056,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
         <v>229</v>
       </c>
     </row>
@@ -1547,7 +1546,7 @@
         <v>2016</v>
       </c>
       <c r="D30" t="n">
-        <v>2421393</v>
+        <v>962168</v>
       </c>
     </row>
     <row r="31">
@@ -1561,21 +1560,21 @@
         <v>2017</v>
       </c>
       <c r="D31" t="n">
-        <v>2588096</v>
+        <v>1018290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D32" t="n">
-        <v>3220443</v>
+        <v>2482953</v>
       </c>
     </row>
     <row r="33">
@@ -1586,10 +1585,10 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D33" t="n">
-        <v>962168</v>
+        <v>919416</v>
       </c>
     </row>
     <row r="34">
@@ -1600,10 +1599,10 @@
         <v>27</v>
       </c>
       <c r="C34" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D34" t="n">
-        <v>1018290</v>
+        <v>1671349</v>
       </c>
     </row>
     <row r="35">
@@ -1617,63 +1616,63 @@
         <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>2482953</v>
+        <v>5599074</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D36" t="n">
-        <v>919416</v>
+        <v>2239080</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>1671349</v>
+        <v>564020</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D38" t="n">
-        <v>5599074</v>
+        <v>1058936</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>2239080</v>
+        <v>24908289</v>
       </c>
     </row>
     <row r="40">
@@ -1684,10 +1683,10 @@
         <v>35</v>
       </c>
       <c r="C40" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="n">
-        <v>564020</v>
+        <v>8073879</v>
       </c>
     </row>
     <row r="41">
@@ -1698,10 +1697,10 @@
         <v>35</v>
       </c>
       <c r="C41" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="n">
-        <v>1058936</v>
+        <v>17704982</v>
       </c>
     </row>
     <row r="42">
@@ -1715,7 +1714,7 @@
         <v>2016</v>
       </c>
       <c r="D42" t="n">
-        <v>24908289</v>
+        <v>254478</v>
       </c>
     </row>
     <row r="43">
@@ -1729,7 +1728,7 @@
         <v>2017</v>
       </c>
       <c r="D43" t="n">
-        <v>8073879</v>
+        <v>263655</v>
       </c>
     </row>
     <row r="44">
@@ -1743,7 +1742,7 @@
         <v>2018</v>
       </c>
       <c r="D44" t="n">
-        <v>17704982</v>
+        <v>357171</v>
       </c>
     </row>
     <row r="45">
@@ -1757,7 +1756,7 @@
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>254478</v>
+        <v>2421393</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1770,7 @@
         <v>2017</v>
       </c>
       <c r="D46" t="n">
-        <v>263655</v>
+        <v>2588096</v>
       </c>
     </row>
     <row r="47">
@@ -1785,7 +1784,7 @@
         <v>2018</v>
       </c>
       <c r="D47" t="n">
-        <v>357171</v>
+        <v>3220443</v>
       </c>
     </row>
     <row r="48">
@@ -5127,14 +5126,12 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2421393</v>
+        <v>962168</v>
       </c>
       <c r="D12" t="n">
-        <v>2588096</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3220443</v>
-      </c>
+        <v>1018290</v>
+      </c>
+      <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
     </row>
@@ -5146,12 +5143,14 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>962168</v>
+        <v>2482953</v>
       </c>
       <c r="D13" t="n">
-        <v>1018290</v>
-      </c>
-      <c r="E13"/>
+        <v>919416</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1671349</v>
+      </c>
       <c r="F13"/>
       <c r="G13"/>
     </row>
@@ -5163,14 +5162,10 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>2482953</v>
-      </c>
-      <c r="D14" t="n">
-        <v>919416</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1671349</v>
-      </c>
+        <v>5599074</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
     </row>
@@ -5182,7 +5177,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>5599074</v>
+        <v>2239080</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -5197,9 +5192,11 @@
         <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>2239080</v>
-      </c>
-      <c r="D16"/>
+        <v>564020</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1058936</v>
+      </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -5212,12 +5209,14 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>564020</v>
+        <v>24908289</v>
       </c>
       <c r="D17" t="n">
-        <v>1058936</v>
-      </c>
-      <c r="E17"/>
+        <v>8073879</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17704982</v>
+      </c>
       <c r="F17"/>
       <c r="G17"/>
     </row>
@@ -5229,13 +5228,13 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>24908289</v>
+        <v>254478</v>
       </c>
       <c r="D18" t="n">
-        <v>8073879</v>
+        <v>263655</v>
       </c>
       <c r="E18" t="n">
-        <v>17704982</v>
+        <v>357171</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -5248,13 +5247,13 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>254478</v>
+        <v>2421393</v>
       </c>
       <c r="D19" t="n">
-        <v>263655</v>
+        <v>2588096</v>
       </c>
       <c r="E19" t="n">
-        <v>357171</v>
+        <v>3220443</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>

--- a/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
+++ b/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
@@ -676,7 +676,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 49</t>
+    <t xml:space="preserve">Source: 50</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
+++ b/user-data/iati-budgets-ca/iati-budgets-ca.xlsx
@@ -676,7 +676,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 50</t>
+    <t xml:space="preserve">Source: 49</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
